--- a/data/raw/election/voters-age-sex-education/2023/Konya.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Konya.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="60">
   <si>
     <t>Konya</t>
   </si>
@@ -193,6 +194,12 @@
   </si>
   <si>
     <t>Yunak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -726,7 +733,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -745,6 +752,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1074,10 +1090,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N810"/>
+  <dimension ref="A1:N812"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A789" workbookViewId="0">
+      <selection activeCell="K760" sqref="K760:K784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,52 +1108,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2143,8 +2159,8 @@
       <c r="D30" s="5">
         <v>293</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.36</v>
+      <c r="E30" s="7">
+        <v>1360</v>
       </c>
       <c r="F30" s="5">
         <v>336</v>
@@ -2167,15 +2183,15 @@
       <c r="L30" s="5">
         <v>20</v>
       </c>
-      <c r="M30" s="5">
-        <v>3.7130000000000001</v>
+      <c r="M30" s="7">
+        <v>3713</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3181,8 +3197,8 @@
       <c r="D56" s="5">
         <v>242</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.3360000000000001</v>
+      <c r="E56" s="7">
+        <v>1336</v>
       </c>
       <c r="F56" s="5">
         <v>438</v>
@@ -3205,15 +3221,15 @@
       <c r="L56" s="5">
         <v>38</v>
       </c>
-      <c r="M56" s="5">
-        <v>4.2530000000000001</v>
+      <c r="M56" s="7">
+        <v>4253</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3270,8 +3286,8 @@
       <c r="G58" s="4">
         <v>821</v>
       </c>
-      <c r="H58" s="4">
-        <v>3.0779999999999998</v>
+      <c r="H58" s="8">
+        <v>3078</v>
       </c>
       <c r="I58" s="4">
         <v>530</v>
@@ -3285,8 +3301,8 @@
       <c r="L58" s="4">
         <v>56</v>
       </c>
-      <c r="M58" s="5">
-        <v>4.5209999999999999</v>
+      <c r="M58" s="7">
+        <v>4521</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3309,8 +3325,8 @@
       <c r="G59" s="4">
         <v>736</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.956</v>
+      <c r="H59" s="8">
+        <v>2956</v>
       </c>
       <c r="I59" s="4">
         <v>811</v>
@@ -3324,8 +3340,8 @@
       <c r="L59" s="4">
         <v>14</v>
       </c>
-      <c r="M59" s="5">
-        <v>4.5570000000000004</v>
+      <c r="M59" s="7">
+        <v>4557</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3350,8 +3366,8 @@
       <c r="G60" s="4">
         <v>505</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.0189999999999999</v>
+      <c r="H60" s="8">
+        <v>1019</v>
       </c>
       <c r="I60" s="4">
         <v>981</v>
@@ -3365,8 +3381,8 @@
       <c r="L60" s="4">
         <v>22</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.6379999999999999</v>
+      <c r="M60" s="7">
+        <v>2638</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3392,8 +3408,8 @@
       <c r="H61" s="4">
         <v>645</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.2270000000000001</v>
+      <c r="I61" s="8">
+        <v>1227</v>
       </c>
       <c r="J61" s="4">
         <v>108</v>
@@ -3404,8 +3420,8 @@
       <c r="L61" s="4">
         <v>20</v>
       </c>
-      <c r="M61" s="5">
-        <v>2.758</v>
+      <c r="M61" s="7">
+        <v>2758</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3445,8 +3461,8 @@
       <c r="L62" s="4">
         <v>12</v>
       </c>
-      <c r="M62" s="5">
-        <v>2.5009999999999999</v>
+      <c r="M62" s="7">
+        <v>2501</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3484,8 +3500,8 @@
       <c r="L63" s="4">
         <v>21</v>
       </c>
-      <c r="M63" s="5">
-        <v>2.72</v>
+      <c r="M63" s="7">
+        <v>2720</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3510,8 +3526,8 @@
       <c r="G64" s="4">
         <v>215</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.248</v>
+      <c r="H64" s="8">
+        <v>1248</v>
       </c>
       <c r="I64" s="4">
         <v>767</v>
@@ -3525,8 +3541,8 @@
       <c r="L64" s="4">
         <v>14</v>
       </c>
-      <c r="M64" s="5">
-        <v>2.94</v>
+      <c r="M64" s="7">
+        <v>2940</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3564,8 +3580,8 @@
       <c r="L65" s="4">
         <v>26</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.056</v>
+      <c r="M65" s="7">
+        <v>3056</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3590,8 +3606,8 @@
       <c r="G66" s="4">
         <v>428</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.292</v>
+      <c r="H66" s="8">
+        <v>1292</v>
       </c>
       <c r="I66" s="4">
         <v>631</v>
@@ -3605,8 +3621,8 @@
       <c r="L66" s="4">
         <v>18</v>
       </c>
-      <c r="M66" s="5">
-        <v>3.0640000000000001</v>
+      <c r="M66" s="7">
+        <v>3064</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3620,8 +3636,8 @@
       <c r="D67" s="4">
         <v>25</v>
       </c>
-      <c r="E67" s="4">
-        <v>1.044</v>
+      <c r="E67" s="8">
+        <v>1044</v>
       </c>
       <c r="F67" s="4">
         <v>340</v>
@@ -3644,8 +3660,8 @@
       <c r="L67" s="4">
         <v>23</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.1629999999999998</v>
+      <c r="M67" s="7">
+        <v>3163</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3670,8 +3686,8 @@
       <c r="G68" s="4">
         <v>392</v>
       </c>
-      <c r="H68" s="4">
-        <v>1.032</v>
+      <c r="H68" s="8">
+        <v>1032</v>
       </c>
       <c r="I68" s="4">
         <v>571</v>
@@ -3685,8 +3701,8 @@
       <c r="L68" s="4">
         <v>36</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.9860000000000002</v>
+      <c r="M68" s="7">
+        <v>2986</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3700,8 +3716,8 @@
       <c r="D69" s="4">
         <v>19</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.28</v>
+      <c r="E69" s="8">
+        <v>1280</v>
       </c>
       <c r="F69" s="4">
         <v>388</v>
@@ -3724,8 +3740,8 @@
       <c r="L69" s="4">
         <v>31</v>
       </c>
-      <c r="M69" s="5">
-        <v>3.274</v>
+      <c r="M69" s="7">
+        <v>3274</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3765,8 +3781,8 @@
       <c r="L70" s="4">
         <v>32</v>
       </c>
-      <c r="M70" s="5">
-        <v>2.8919999999999999</v>
+      <c r="M70" s="7">
+        <v>2892</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3780,8 +3796,8 @@
       <c r="D71" s="4">
         <v>45</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.5760000000000001</v>
+      <c r="E71" s="8">
+        <v>1576</v>
       </c>
       <c r="F71" s="4">
         <v>338</v>
@@ -3804,8 +3820,8 @@
       <c r="L71" s="4">
         <v>44</v>
       </c>
-      <c r="M71" s="5">
-        <v>3.2360000000000002</v>
+      <c r="M71" s="7">
+        <v>3236</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3845,8 +3861,8 @@
       <c r="L72" s="4">
         <v>53</v>
       </c>
-      <c r="M72" s="5">
-        <v>2.8969999999999998</v>
+      <c r="M72" s="7">
+        <v>2897</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3860,8 +3876,8 @@
       <c r="D73" s="4">
         <v>118</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.853</v>
+      <c r="E73" s="8">
+        <v>1853</v>
       </c>
       <c r="F73" s="4">
         <v>224</v>
@@ -3884,8 +3900,8 @@
       <c r="L73" s="4">
         <v>51</v>
       </c>
-      <c r="M73" s="5">
-        <v>3.2229999999999999</v>
+      <c r="M73" s="7">
+        <v>3223</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3901,8 +3917,8 @@
       <c r="D74" s="4">
         <v>15</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.206</v>
+      <c r="E74" s="8">
+        <v>1206</v>
       </c>
       <c r="F74" s="4">
         <v>218</v>
@@ -3925,8 +3941,8 @@
       <c r="L74" s="4">
         <v>37</v>
       </c>
-      <c r="M74" s="5">
-        <v>2.9809999999999999</v>
+      <c r="M74" s="7">
+        <v>2981</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3940,8 +3956,8 @@
       <c r="D75" s="4">
         <v>205</v>
       </c>
-      <c r="E75" s="4">
-        <v>2.13</v>
+      <c r="E75" s="8">
+        <v>2130</v>
       </c>
       <c r="F75" s="4">
         <v>95</v>
@@ -3964,8 +3980,8 @@
       <c r="L75" s="4">
         <v>36</v>
       </c>
-      <c r="M75" s="5">
-        <v>3.3519999999999999</v>
+      <c r="M75" s="7">
+        <v>3352</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3981,8 +3997,8 @@
       <c r="D76" s="4">
         <v>24</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.232</v>
+      <c r="E76" s="8">
+        <v>1232</v>
       </c>
       <c r="F76" s="4">
         <v>107</v>
@@ -4005,8 +4021,8 @@
       <c r="L76" s="4">
         <v>28</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.383</v>
+      <c r="M76" s="7">
+        <v>2383</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4020,8 +4036,8 @@
       <c r="D77" s="4">
         <v>311</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.786</v>
+      <c r="E77" s="8">
+        <v>1786</v>
       </c>
       <c r="F77" s="4">
         <v>43</v>
@@ -4044,8 +4060,8 @@
       <c r="L77" s="4">
         <v>31</v>
       </c>
-      <c r="M77" s="5">
-        <v>2.774</v>
+      <c r="M77" s="7">
+        <v>2774</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4061,8 +4077,8 @@
       <c r="D78" s="4">
         <v>43</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.216</v>
+      <c r="E78" s="8">
+        <v>1216</v>
       </c>
       <c r="F78" s="4">
         <v>37</v>
@@ -4085,8 +4101,8 @@
       <c r="L78" s="4">
         <v>26</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.91</v>
+      <c r="M78" s="7">
+        <v>1910</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4100,8 +4116,8 @@
       <c r="D79" s="4">
         <v>339</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.405</v>
+      <c r="E79" s="8">
+        <v>1405</v>
       </c>
       <c r="F79" s="4">
         <v>22</v>
@@ -4124,8 +4140,8 @@
       <c r="L79" s="4">
         <v>34</v>
       </c>
-      <c r="M79" s="5">
-        <v>2.2730000000000001</v>
+      <c r="M79" s="7">
+        <v>2273</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4141,8 +4157,8 @@
       <c r="D80" s="4">
         <v>145</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.5589999999999999</v>
+      <c r="E80" s="8">
+        <v>1559</v>
       </c>
       <c r="F80" s="4">
         <v>20</v>
@@ -4165,8 +4181,8 @@
       <c r="L80" s="4">
         <v>40</v>
       </c>
-      <c r="M80" s="5">
-        <v>2.327</v>
+      <c r="M80" s="7">
+        <v>2327</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4180,8 +4196,8 @@
       <c r="D81" s="4">
         <v>717</v>
       </c>
-      <c r="E81" s="4">
-        <v>1.5529999999999999</v>
+      <c r="E81" s="8">
+        <v>1553</v>
       </c>
       <c r="F81" s="4">
         <v>7</v>
@@ -4204,8 +4220,8 @@
       <c r="L81" s="4">
         <v>33</v>
       </c>
-      <c r="M81" s="5">
-        <v>3.2890000000000001</v>
+      <c r="M81" s="7">
+        <v>3289</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4213,29 +4229,29 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>20.931000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>5.0579999999999998</v>
-      </c>
-      <c r="G82" s="5">
-        <v>8.3979999999999997</v>
-      </c>
-      <c r="H82" s="5">
-        <v>20.114000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>11.086</v>
-      </c>
-      <c r="J82" s="5">
-        <v>1.2330000000000001</v>
+      <c r="C82" s="7">
+        <v>1870</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2186</v>
+      </c>
+      <c r="E82" s="7">
+        <v>20931</v>
+      </c>
+      <c r="F82" s="7">
+        <v>5058</v>
+      </c>
+      <c r="G82" s="7">
+        <v>8398</v>
+      </c>
+      <c r="H82" s="7">
+        <v>20114</v>
+      </c>
+      <c r="I82" s="7">
+        <v>11086</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1233</v>
       </c>
       <c r="K82" s="5">
         <v>101</v>
@@ -4243,15 +4259,15 @@
       <c r="L82" s="5">
         <v>738</v>
       </c>
-      <c r="M82" s="5">
-        <v>71.715000000000003</v>
+      <c r="M82" s="7">
+        <v>71715</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5257,17 +5273,17 @@
       <c r="D108" s="5">
         <v>361</v>
       </c>
-      <c r="E108" s="5">
-        <v>4.266</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="H108" s="5">
-        <v>1.5029999999999999</v>
+      <c r="E108" s="7">
+        <v>4266</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1261</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1955</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1503</v>
       </c>
       <c r="I108" s="5">
         <v>640</v>
@@ -5281,15 +5297,15 @@
       <c r="L108" s="5">
         <v>28</v>
       </c>
-      <c r="M108" s="5">
-        <v>10.259</v>
+      <c r="M108" s="7">
+        <v>10259</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5346,8 +5362,8 @@
       <c r="G110" s="4">
         <v>991</v>
       </c>
-      <c r="H110" s="4">
-        <v>2.29</v>
+      <c r="H110" s="8">
+        <v>2290</v>
       </c>
       <c r="I110" s="4">
         <v>446</v>
@@ -5361,8 +5377,8 @@
       <c r="L110" s="4">
         <v>34</v>
       </c>
-      <c r="M110" s="5">
-        <v>3.786</v>
+      <c r="M110" s="7">
+        <v>3786</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5385,8 +5401,8 @@
       <c r="G111" s="4">
         <v>745</v>
       </c>
-      <c r="H111" s="4">
-        <v>2.391</v>
+      <c r="H111" s="8">
+        <v>2391</v>
       </c>
       <c r="I111" s="4">
         <v>628</v>
@@ -5400,8 +5416,8 @@
       <c r="L111" s="4">
         <v>27</v>
       </c>
-      <c r="M111" s="5">
-        <v>3.8220000000000001</v>
+      <c r="M111" s="7">
+        <v>3822</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5441,8 +5457,8 @@
       <c r="L112" s="4">
         <v>15</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.6789999999999998</v>
+      <c r="M112" s="7">
+        <v>2679</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5468,8 +5484,8 @@
       <c r="H113" s="4">
         <v>726</v>
       </c>
-      <c r="I113" s="4">
-        <v>1.0329999999999999</v>
+      <c r="I113" s="8">
+        <v>1033</v>
       </c>
       <c r="J113" s="4">
         <v>89</v>
@@ -5480,8 +5496,8 @@
       <c r="L113" s="4">
         <v>18</v>
       </c>
-      <c r="M113" s="5">
-        <v>2.5760000000000001</v>
+      <c r="M113" s="7">
+        <v>2576</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5521,8 +5537,8 @@
       <c r="L114" s="4">
         <v>22</v>
       </c>
-      <c r="M114" s="5">
-        <v>2.5179999999999998</v>
+      <c r="M114" s="7">
+        <v>2518</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5560,8 +5576,8 @@
       <c r="L115" s="4">
         <v>25</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.5419999999999998</v>
+      <c r="M115" s="7">
+        <v>2542</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5601,8 +5617,8 @@
       <c r="L116" s="4">
         <v>20</v>
       </c>
-      <c r="M116" s="5">
-        <v>2.72</v>
+      <c r="M116" s="7">
+        <v>2720</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5640,8 +5656,8 @@
       <c r="L117" s="4">
         <v>15</v>
       </c>
-      <c r="M117" s="5">
-        <v>2.6560000000000001</v>
+      <c r="M117" s="7">
+        <v>2656</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5681,8 +5697,8 @@
       <c r="L118" s="4">
         <v>17</v>
       </c>
-      <c r="M118" s="5">
-        <v>2.6549999999999998</v>
+      <c r="M118" s="7">
+        <v>2655</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5720,8 +5736,8 @@
       <c r="L119" s="4">
         <v>18</v>
       </c>
-      <c r="M119" s="5">
-        <v>2.7669999999999999</v>
+      <c r="M119" s="7">
+        <v>2767</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5761,8 +5777,8 @@
       <c r="L120" s="4">
         <v>20</v>
       </c>
-      <c r="M120" s="5">
-        <v>2.452</v>
+      <c r="M120" s="7">
+        <v>2452</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5800,8 +5816,8 @@
       <c r="L121" s="4">
         <v>20</v>
       </c>
-      <c r="M121" s="5">
-        <v>2.3490000000000002</v>
+      <c r="M121" s="7">
+        <v>2349</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5841,8 +5857,8 @@
       <c r="L122" s="4">
         <v>32</v>
       </c>
-      <c r="M122" s="5">
-        <v>2.4380000000000002</v>
+      <c r="M122" s="7">
+        <v>2438</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5856,8 +5872,8 @@
       <c r="D123" s="4">
         <v>23</v>
       </c>
-      <c r="E123" s="4">
-        <v>1.1240000000000001</v>
+      <c r="E123" s="8">
+        <v>1124</v>
       </c>
       <c r="F123" s="4">
         <v>349</v>
@@ -5880,8 +5896,8 @@
       <c r="L123" s="4">
         <v>38</v>
       </c>
-      <c r="M123" s="5">
-        <v>2.31</v>
+      <c r="M123" s="7">
+        <v>2310</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5921,8 +5937,8 @@
       <c r="L124" s="4">
         <v>45</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.3140000000000001</v>
+      <c r="M124" s="7">
+        <v>2314</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5936,8 +5952,8 @@
       <c r="D125" s="4">
         <v>65</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.5009999999999999</v>
+      <c r="E125" s="8">
+        <v>1501</v>
       </c>
       <c r="F125" s="4">
         <v>260</v>
@@ -5960,8 +5976,8 @@
       <c r="L125" s="4">
         <v>26</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.3650000000000002</v>
+      <c r="M125" s="7">
+        <v>2365</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -6001,8 +6017,8 @@
       <c r="L126" s="4">
         <v>32</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.1779999999999999</v>
+      <c r="M126" s="7">
+        <v>2178</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -6016,8 +6032,8 @@
       <c r="D127" s="4">
         <v>133</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.5489999999999999</v>
+      <c r="E127" s="8">
+        <v>1549</v>
       </c>
       <c r="F127" s="4">
         <v>105</v>
@@ -6040,8 +6056,8 @@
       <c r="L127" s="4">
         <v>18</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.1509999999999998</v>
+      <c r="M127" s="7">
+        <v>2151</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6081,8 +6097,8 @@
       <c r="L128" s="4">
         <v>25</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.6950000000000001</v>
+      <c r="M128" s="7">
+        <v>1695</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6096,8 +6112,8 @@
       <c r="D129" s="4">
         <v>260</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.3759999999999999</v>
+      <c r="E129" s="8">
+        <v>1376</v>
       </c>
       <c r="F129" s="4">
         <v>28</v>
@@ -6120,8 +6136,8 @@
       <c r="L129" s="4">
         <v>12</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.952</v>
+      <c r="M129" s="7">
+        <v>1952</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6161,8 +6177,8 @@
       <c r="L130" s="4">
         <v>13</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.331</v>
+      <c r="M130" s="7">
+        <v>1331</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6200,8 +6216,8 @@
       <c r="L131" s="4">
         <v>27</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.5349999999999999</v>
+      <c r="M131" s="7">
+        <v>1535</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6217,8 +6233,8 @@
       <c r="D132" s="4">
         <v>196</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.0229999999999999</v>
+      <c r="E132" s="8">
+        <v>1023</v>
       </c>
       <c r="F132" s="4">
         <v>17</v>
@@ -6241,8 +6257,8 @@
       <c r="L132" s="4">
         <v>28</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.587</v>
+      <c r="M132" s="7">
+        <v>1587</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6280,8 +6296,8 @@
       <c r="L133" s="4">
         <v>29</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.3519999999999999</v>
+      <c r="M133" s="7">
+        <v>2352</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6289,26 +6305,26 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.2509999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="E134" s="5">
-        <v>15.308</v>
-      </c>
-      <c r="F134" s="5">
-        <v>5.319</v>
-      </c>
-      <c r="G134" s="5">
-        <v>8.8019999999999996</v>
-      </c>
-      <c r="H134" s="5">
-        <v>14.601000000000001</v>
-      </c>
-      <c r="I134" s="5">
-        <v>8.7219999999999995</v>
+      <c r="C134" s="7">
+        <v>1251</v>
+      </c>
+      <c r="D134" s="7">
+        <v>2138</v>
+      </c>
+      <c r="E134" s="7">
+        <v>15308</v>
+      </c>
+      <c r="F134" s="7">
+        <v>5319</v>
+      </c>
+      <c r="G134" s="7">
+        <v>8802</v>
+      </c>
+      <c r="H134" s="7">
+        <v>14601</v>
+      </c>
+      <c r="I134" s="7">
+        <v>8722</v>
       </c>
       <c r="J134" s="5">
         <v>948</v>
@@ -6319,15 +6335,15 @@
       <c r="L134" s="5">
         <v>576</v>
       </c>
-      <c r="M134" s="5">
-        <v>57.73</v>
+      <c r="M134" s="7">
+        <v>57730</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6399,8 +6415,8 @@
       <c r="L136" s="4">
         <v>13</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.1839999999999999</v>
+      <c r="M136" s="7">
+        <v>1184</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6438,8 +6454,8 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.2</v>
+      <c r="M137" s="7">
+        <v>1200</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -7318,8 +7334,8 @@
       <c r="L159" s="4">
         <v>9</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.4870000000000001</v>
+      <c r="M159" s="7">
+        <v>1487</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7330,23 +7346,23 @@
       <c r="C160" s="5">
         <v>582</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="E160" s="5">
-        <v>7.1459999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.9159999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.0609999999999999</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.827</v>
+      <c r="D160" s="7">
+        <v>1443</v>
+      </c>
+      <c r="E160" s="7">
+        <v>7146</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1693</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2916</v>
+      </c>
+      <c r="H160" s="7">
+        <v>3061</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1827</v>
       </c>
       <c r="J160" s="5">
         <v>199</v>
@@ -7357,15 +7373,15 @@
       <c r="L160" s="5">
         <v>198</v>
       </c>
-      <c r="M160" s="5">
-        <v>19.077999999999999</v>
+      <c r="M160" s="7">
+        <v>19078</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7419,11 +7435,11 @@
       <c r="F162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.153</v>
-      </c>
-      <c r="H162" s="4">
-        <v>1.43</v>
+      <c r="G162" s="8">
+        <v>1153</v>
+      </c>
+      <c r="H162" s="8">
+        <v>1430</v>
       </c>
       <c r="I162" s="4">
         <v>171</v>
@@ -7437,8 +7453,8 @@
       <c r="L162" s="4">
         <v>29</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.927</v>
+      <c r="M162" s="7">
+        <v>2927</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7461,8 +7477,8 @@
       <c r="G163" s="4">
         <v>778</v>
       </c>
-      <c r="H163" s="4">
-        <v>1.3360000000000001</v>
+      <c r="H163" s="8">
+        <v>1336</v>
       </c>
       <c r="I163" s="4">
         <v>371</v>
@@ -7476,8 +7492,8 @@
       <c r="L163" s="4">
         <v>17</v>
       </c>
-      <c r="M163" s="5">
-        <v>2.6440000000000001</v>
+      <c r="M163" s="7">
+        <v>2644</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7517,8 +7533,8 @@
       <c r="L164" s="4">
         <v>17</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.925</v>
+      <c r="M164" s="7">
+        <v>1925</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7556,8 +7572,8 @@
       <c r="L165" s="4">
         <v>23</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.776</v>
+      <c r="M165" s="7">
+        <v>1776</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7597,8 +7613,8 @@
       <c r="L166" s="4">
         <v>31</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.7809999999999999</v>
+      <c r="M166" s="7">
+        <v>1781</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7636,8 +7652,8 @@
       <c r="L167" s="4">
         <v>39</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.651</v>
+      <c r="M167" s="7">
+        <v>1651</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7677,8 +7693,8 @@
       <c r="L168" s="4">
         <v>55</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.8420000000000001</v>
+      <c r="M168" s="7">
+        <v>1842</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7716,8 +7732,8 @@
       <c r="L169" s="4">
         <v>31</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.65</v>
+      <c r="M169" s="7">
+        <v>1650</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7757,8 +7773,8 @@
       <c r="L170" s="4">
         <v>52</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.7350000000000001</v>
+      <c r="M170" s="7">
+        <v>1735</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7796,8 +7812,8 @@
       <c r="L171" s="4">
         <v>39</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.665</v>
+      <c r="M171" s="7">
+        <v>1665</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7837,8 +7853,8 @@
       <c r="L172" s="4">
         <v>55</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.5640000000000001</v>
+      <c r="M172" s="7">
+        <v>1564</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7876,8 +7892,8 @@
       <c r="L173" s="4">
         <v>49</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.4890000000000001</v>
+      <c r="M173" s="7">
+        <v>1489</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7917,8 +7933,8 @@
       <c r="L174" s="4">
         <v>56</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.423</v>
+      <c r="M174" s="7">
+        <v>1423</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7956,8 +7972,8 @@
       <c r="L175" s="4">
         <v>54</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.538</v>
+      <c r="M175" s="7">
+        <v>1538</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7997,8 +8013,8 @@
       <c r="L176" s="4">
         <v>87</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.4490000000000001</v>
+      <c r="M176" s="7">
+        <v>1449</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -8012,8 +8028,8 @@
       <c r="D177" s="4">
         <v>99</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.0840000000000001</v>
+      <c r="E177" s="8">
+        <v>1084</v>
       </c>
       <c r="F177" s="4">
         <v>106</v>
@@ -8036,8 +8052,8 @@
       <c r="L177" s="4">
         <v>88</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.573</v>
+      <c r="M177" s="7">
+        <v>1573</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8077,8 +8093,8 @@
       <c r="L178" s="4">
         <v>84</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.3129999999999999</v>
+      <c r="M178" s="7">
+        <v>1313</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8116,8 +8132,8 @@
       <c r="L179" s="4">
         <v>61</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.454</v>
+      <c r="M179" s="7">
+        <v>1454</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8157,8 +8173,8 @@
       <c r="L180" s="4">
         <v>56</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.089</v>
+      <c r="M180" s="7">
+        <v>1089</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8196,8 +8212,8 @@
       <c r="L181" s="4">
         <v>54</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.25</v>
+      <c r="M181" s="7">
+        <v>1250</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8276,8 +8292,8 @@
       <c r="L183" s="4">
         <v>52</v>
       </c>
-      <c r="M183" s="5">
-        <v>1.002</v>
+      <c r="M183" s="7">
+        <v>1002</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8356,8 +8372,8 @@
       <c r="L185" s="4">
         <v>27</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M185" s="7">
+        <v>1283</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8365,26 +8381,26 @@
         <v>12</v>
       </c>
       <c r="B186" s="6"/>
-      <c r="C186" s="5">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="D186" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="E186" s="5">
-        <v>11.66</v>
-      </c>
-      <c r="F186" s="5">
-        <v>3.4910000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>6.5010000000000003</v>
-      </c>
-      <c r="H186" s="5">
-        <v>7.6879999999999997</v>
-      </c>
-      <c r="I186" s="5">
-        <v>3.1920000000000002</v>
+      <c r="C186" s="7">
+        <v>1376</v>
+      </c>
+      <c r="D186" s="7">
+        <v>2250</v>
+      </c>
+      <c r="E186" s="7">
+        <v>11660</v>
+      </c>
+      <c r="F186" s="7">
+        <v>3491</v>
+      </c>
+      <c r="G186" s="7">
+        <v>6501</v>
+      </c>
+      <c r="H186" s="7">
+        <v>7688</v>
+      </c>
+      <c r="I186" s="7">
+        <v>3192</v>
       </c>
       <c r="J186" s="5">
         <v>314</v>
@@ -8392,18 +8408,18 @@
       <c r="K186" s="5">
         <v>16</v>
       </c>
-      <c r="L186" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M186" s="5">
-        <v>37.648000000000003</v>
+      <c r="L186" s="7">
+        <v>1160</v>
+      </c>
+      <c r="M186" s="7">
+        <v>37648</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9409,17 +9425,17 @@
       <c r="D212" s="5">
         <v>407</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.21</v>
+      <c r="E212" s="7">
+        <v>2210</v>
       </c>
       <c r="F212" s="5">
         <v>512</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>1.58</v>
+      <c r="G212" s="7">
+        <v>1144</v>
+      </c>
+      <c r="H212" s="7">
+        <v>1580</v>
       </c>
       <c r="I212" s="5">
         <v>676</v>
@@ -9433,15 +9449,15 @@
       <c r="L212" s="5">
         <v>317</v>
       </c>
-      <c r="M212" s="5">
-        <v>7.2380000000000004</v>
+      <c r="M212" s="7">
+        <v>7238</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9495,11 +9511,11 @@
       <c r="F214" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G214" s="4">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="H214" s="4">
-        <v>2.1219999999999999</v>
+      <c r="G214" s="8">
+        <v>1366</v>
+      </c>
+      <c r="H214" s="8">
+        <v>2122</v>
       </c>
       <c r="I214" s="4">
         <v>339</v>
@@ -9513,8 +9529,8 @@
       <c r="L214" s="4">
         <v>47</v>
       </c>
-      <c r="M214" s="5">
-        <v>3.899</v>
+      <c r="M214" s="7">
+        <v>3899</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9534,11 +9550,11 @@
       <c r="F215" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G215" s="4">
-        <v>1.087</v>
-      </c>
-      <c r="H215" s="4">
-        <v>2.2290000000000001</v>
+      <c r="G215" s="8">
+        <v>1087</v>
+      </c>
+      <c r="H215" s="8">
+        <v>2229</v>
       </c>
       <c r="I215" s="4">
         <v>568</v>
@@ -9552,8 +9568,8 @@
       <c r="L215" s="4">
         <v>11</v>
       </c>
-      <c r="M215" s="5">
-        <v>3.9289999999999998</v>
+      <c r="M215" s="7">
+        <v>3929</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9593,8 +9609,8 @@
       <c r="L216" s="4">
         <v>9</v>
       </c>
-      <c r="M216" s="5">
-        <v>2.5960000000000001</v>
+      <c r="M216" s="7">
+        <v>2596</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9632,8 +9648,8 @@
       <c r="L217" s="4">
         <v>11</v>
       </c>
-      <c r="M217" s="5">
-        <v>2.4460000000000002</v>
+      <c r="M217" s="7">
+        <v>2446</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9673,8 +9689,8 @@
       <c r="L218" s="4">
         <v>17</v>
       </c>
-      <c r="M218" s="5">
-        <v>2.3149999999999999</v>
+      <c r="M218" s="7">
+        <v>2315</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9712,8 +9728,8 @@
       <c r="L219" s="4">
         <v>20</v>
       </c>
-      <c r="M219" s="5">
-        <v>2.0409999999999999</v>
+      <c r="M219" s="7">
+        <v>2041</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9753,8 +9769,8 @@
       <c r="L220" s="4">
         <v>12</v>
       </c>
-      <c r="M220" s="5">
-        <v>2.4079999999999999</v>
+      <c r="M220" s="7">
+        <v>2408</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9792,8 +9808,8 @@
       <c r="L221" s="4">
         <v>17</v>
       </c>
-      <c r="M221" s="5">
-        <v>2.19</v>
+      <c r="M221" s="7">
+        <v>2190</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9833,8 +9849,8 @@
       <c r="L222" s="4">
         <v>20</v>
       </c>
-      <c r="M222" s="5">
-        <v>2.2959999999999998</v>
+      <c r="M222" s="7">
+        <v>2296</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9848,8 +9864,8 @@
       <c r="D223" s="4">
         <v>16</v>
       </c>
-      <c r="E223" s="4">
-        <v>1.06</v>
+      <c r="E223" s="8">
+        <v>1060</v>
       </c>
       <c r="F223" s="4">
         <v>261</v>
@@ -9872,8 +9888,8 @@
       <c r="L223" s="4">
         <v>12</v>
       </c>
-      <c r="M223" s="5">
-        <v>2.1160000000000001</v>
+      <c r="M223" s="7">
+        <v>2116</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9913,8 +9929,8 @@
       <c r="L224" s="4">
         <v>15</v>
       </c>
-      <c r="M224" s="5">
-        <v>2.044</v>
+      <c r="M224" s="7">
+        <v>2044</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9928,8 +9944,8 @@
       <c r="D225" s="4">
         <v>20</v>
       </c>
-      <c r="E225" s="4">
-        <v>1.111</v>
+      <c r="E225" s="8">
+        <v>1111</v>
       </c>
       <c r="F225" s="4">
         <v>303</v>
@@ -9952,8 +9968,8 @@
       <c r="L225" s="4">
         <v>12</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.9950000000000001</v>
+      <c r="M225" s="7">
+        <v>1995</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9993,8 +10009,8 @@
       <c r="L226" s="4">
         <v>20</v>
       </c>
-      <c r="M226" s="5">
-        <v>1.948</v>
+      <c r="M226" s="7">
+        <v>1948</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -10008,8 +10024,8 @@
       <c r="D227" s="4">
         <v>32</v>
       </c>
-      <c r="E227" s="4">
-        <v>1.262</v>
+      <c r="E227" s="8">
+        <v>1262</v>
       </c>
       <c r="F227" s="4">
         <v>320</v>
@@ -10032,8 +10048,8 @@
       <c r="L227" s="4">
         <v>15</v>
       </c>
-      <c r="M227" s="5">
-        <v>2.036</v>
+      <c r="M227" s="7">
+        <v>2036</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10073,8 +10089,8 @@
       <c r="L228" s="4">
         <v>20</v>
       </c>
-      <c r="M228" s="5">
-        <v>1.8640000000000001</v>
+      <c r="M228" s="7">
+        <v>1864</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10088,8 +10104,8 @@
       <c r="D229" s="4">
         <v>53</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.2789999999999999</v>
+      <c r="E229" s="8">
+        <v>1279</v>
       </c>
       <c r="F229" s="4">
         <v>186</v>
@@ -10112,8 +10128,8 @@
       <c r="L229" s="4">
         <v>19</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.8320000000000001</v>
+      <c r="M229" s="7">
+        <v>1832</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10153,8 +10169,8 @@
       <c r="L230" s="4">
         <v>11</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.573</v>
+      <c r="M230" s="7">
+        <v>1573</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10168,8 +10184,8 @@
       <c r="D231" s="4">
         <v>84</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.296</v>
+      <c r="E231" s="8">
+        <v>1296</v>
       </c>
       <c r="F231" s="4">
         <v>75</v>
@@ -10192,8 +10208,8 @@
       <c r="L231" s="4">
         <v>22</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.65</v>
+      <c r="M231" s="7">
+        <v>1650</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10233,8 +10249,8 @@
       <c r="L232" s="4">
         <v>22</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.2629999999999999</v>
+      <c r="M232" s="7">
+        <v>1263</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10248,8 +10264,8 @@
       <c r="D233" s="4">
         <v>183</v>
       </c>
-      <c r="E233" s="4">
-        <v>1.1319999999999999</v>
+      <c r="E233" s="8">
+        <v>1132</v>
       </c>
       <c r="F233" s="4">
         <v>31</v>
@@ -10272,8 +10288,8 @@
       <c r="L233" s="4">
         <v>15</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.5</v>
+      <c r="M233" s="7">
+        <v>1500</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10352,8 +10368,8 @@
       <c r="L235" s="4">
         <v>17</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.1870000000000001</v>
+      <c r="M235" s="7">
+        <v>1187</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10432,8 +10448,8 @@
       <c r="L237" s="4">
         <v>13</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.5469999999999999</v>
+      <c r="M237" s="7">
+        <v>1547</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10444,23 +10460,23 @@
       <c r="C238" s="5">
         <v>838</v>
       </c>
-      <c r="D238" s="5">
-        <v>1.528</v>
-      </c>
-      <c r="E238" s="5">
-        <v>14.887</v>
-      </c>
-      <c r="F238" s="5">
-        <v>5.0910000000000002</v>
-      </c>
-      <c r="G238" s="5">
-        <v>8.44</v>
-      </c>
-      <c r="H238" s="5">
-        <v>11.401999999999999</v>
-      </c>
-      <c r="I238" s="5">
-        <v>5.4939999999999998</v>
+      <c r="D238" s="7">
+        <v>1528</v>
+      </c>
+      <c r="E238" s="7">
+        <v>14887</v>
+      </c>
+      <c r="F238" s="7">
+        <v>5091</v>
+      </c>
+      <c r="G238" s="7">
+        <v>8440</v>
+      </c>
+      <c r="H238" s="7">
+        <v>11402</v>
+      </c>
+      <c r="I238" s="7">
+        <v>5494</v>
       </c>
       <c r="J238" s="5">
         <v>427</v>
@@ -10471,15 +10487,15 @@
       <c r="L238" s="5">
         <v>408</v>
       </c>
-      <c r="M238" s="5">
-        <v>48.545000000000002</v>
+      <c r="M238" s="7">
+        <v>48545</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10504,7 +10520,7 @@
       <c r="J239" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K239" s="2" t="s">
+      <c r="K239" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L239" s="2" t="s">
@@ -10545,8 +10561,8 @@
       <c r="J240" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K240" s="4" t="s">
-        <v>15</v>
+      <c r="K240" s="4">
+        <v>0</v>
       </c>
       <c r="L240" s="4">
         <v>4</v>
@@ -10584,8 +10600,8 @@
       <c r="J241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K241" s="4" t="s">
-        <v>15</v>
+      <c r="K241" s="4">
+        <v>0</v>
       </c>
       <c r="L241" s="4" t="s">
         <v>15</v>
@@ -10625,8 +10641,8 @@
       <c r="J242" s="4">
         <v>2</v>
       </c>
-      <c r="K242" s="4" t="s">
-        <v>15</v>
+      <c r="K242" s="4">
+        <v>0</v>
       </c>
       <c r="L242" s="4">
         <v>2</v>
@@ -10664,8 +10680,8 @@
       <c r="J243" s="4">
         <v>1</v>
       </c>
-      <c r="K243" s="4" t="s">
-        <v>15</v>
+      <c r="K243" s="4">
+        <v>0</v>
       </c>
       <c r="L243" s="4">
         <v>1</v>
@@ -10705,8 +10721,8 @@
       <c r="J244" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K244" s="4" t="s">
-        <v>15</v>
+      <c r="K244" s="4">
+        <v>0</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>15</v>
@@ -10744,8 +10760,8 @@
       <c r="J245" s="4">
         <v>1</v>
       </c>
-      <c r="K245" s="4" t="s">
-        <v>15</v>
+      <c r="K245" s="4">
+        <v>0</v>
       </c>
       <c r="L245" s="4" t="s">
         <v>15</v>
@@ -10785,8 +10801,8 @@
       <c r="J246" s="4">
         <v>2</v>
       </c>
-      <c r="K246" s="4" t="s">
-        <v>15</v>
+      <c r="K246" s="4">
+        <v>0</v>
       </c>
       <c r="L246" s="4" t="s">
         <v>15</v>
@@ -10824,8 +10840,8 @@
       <c r="J247" s="4">
         <v>1</v>
       </c>
-      <c r="K247" s="4" t="s">
-        <v>15</v>
+      <c r="K247" s="4">
+        <v>0</v>
       </c>
       <c r="L247" s="4">
         <v>1</v>
@@ -10865,8 +10881,8 @@
       <c r="J248" s="4">
         <v>5</v>
       </c>
-      <c r="K248" s="4" t="s">
-        <v>15</v>
+      <c r="K248" s="4">
+        <v>0</v>
       </c>
       <c r="L248" s="4" t="s">
         <v>15</v>
@@ -10904,8 +10920,8 @@
       <c r="J249" s="4">
         <v>2</v>
       </c>
-      <c r="K249" s="4" t="s">
-        <v>15</v>
+      <c r="K249" s="4">
+        <v>0</v>
       </c>
       <c r="L249" s="4" t="s">
         <v>15</v>
@@ -10945,8 +10961,8 @@
       <c r="J250" s="4">
         <v>2</v>
       </c>
-      <c r="K250" s="4" t="s">
-        <v>15</v>
+      <c r="K250" s="4">
+        <v>0</v>
       </c>
       <c r="L250" s="4" t="s">
         <v>15</v>
@@ -10984,8 +11000,8 @@
       <c r="J251" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K251" s="4" t="s">
-        <v>15</v>
+      <c r="K251" s="4">
+        <v>0</v>
       </c>
       <c r="L251" s="4">
         <v>1</v>
@@ -11025,8 +11041,8 @@
       <c r="J252" s="4">
         <v>1</v>
       </c>
-      <c r="K252" s="4" t="s">
-        <v>15</v>
+      <c r="K252" s="4">
+        <v>0</v>
       </c>
       <c r="L252" s="4">
         <v>1</v>
@@ -11064,8 +11080,8 @@
       <c r="J253" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K253" s="4" t="s">
-        <v>15</v>
+      <c r="K253" s="4">
+        <v>0</v>
       </c>
       <c r="L253" s="4" t="s">
         <v>15</v>
@@ -11105,8 +11121,8 @@
       <c r="J254" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K254" s="4" t="s">
-        <v>15</v>
+      <c r="K254" s="4">
+        <v>0</v>
       </c>
       <c r="L254" s="4">
         <v>1</v>
@@ -11144,8 +11160,8 @@
       <c r="J255" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K255" s="4" t="s">
-        <v>15</v>
+      <c r="K255" s="4">
+        <v>0</v>
       </c>
       <c r="L255" s="4">
         <v>1</v>
@@ -11185,8 +11201,8 @@
       <c r="J256" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K256" s="4" t="s">
-        <v>15</v>
+      <c r="K256" s="4">
+        <v>0</v>
       </c>
       <c r="L256" s="4" t="s">
         <v>15</v>
@@ -11224,8 +11240,8 @@
       <c r="J257" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K257" s="4" t="s">
-        <v>15</v>
+      <c r="K257" s="4">
+        <v>0</v>
       </c>
       <c r="L257" s="4">
         <v>1</v>
@@ -11265,8 +11281,8 @@
       <c r="J258" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K258" s="4" t="s">
-        <v>15</v>
+      <c r="K258" s="4">
+        <v>0</v>
       </c>
       <c r="L258" s="4">
         <v>1</v>
@@ -11304,8 +11320,8 @@
       <c r="J259" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K259" s="4" t="s">
-        <v>15</v>
+      <c r="K259" s="4">
+        <v>0</v>
       </c>
       <c r="L259" s="4" t="s">
         <v>15</v>
@@ -11345,8 +11361,8 @@
       <c r="J260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K260" s="4" t="s">
-        <v>15</v>
+      <c r="K260" s="4">
+        <v>0</v>
       </c>
       <c r="L260" s="4" t="s">
         <v>15</v>
@@ -11384,8 +11400,8 @@
       <c r="J261" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K261" s="4" t="s">
-        <v>15</v>
+      <c r="K261" s="4">
+        <v>0</v>
       </c>
       <c r="L261" s="4" t="s">
         <v>15</v>
@@ -11425,8 +11441,8 @@
       <c r="J262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K262" s="4" t="s">
-        <v>15</v>
+      <c r="K262" s="4">
+        <v>0</v>
       </c>
       <c r="L262" s="4">
         <v>2</v>
@@ -11464,8 +11480,8 @@
       <c r="J263" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K263" s="4" t="s">
-        <v>15</v>
+      <c r="K263" s="4">
+        <v>0</v>
       </c>
       <c r="L263" s="4">
         <v>4</v>
@@ -11485,8 +11501,8 @@
       <c r="D264" s="5">
         <v>401</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.0620000000000001</v>
+      <c r="E264" s="7">
+        <v>1062</v>
       </c>
       <c r="F264" s="5">
         <v>390</v>
@@ -11503,21 +11519,21 @@
       <c r="J264" s="5">
         <v>17</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="4">
         <v>0</v>
       </c>
       <c r="L264" s="5">
         <v>20</v>
       </c>
-      <c r="M264" s="5">
-        <v>3.3660000000000001</v>
+      <c r="M264" s="7">
+        <v>3366</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -12523,8 +12539,8 @@
       <c r="D290" s="5">
         <v>559</v>
       </c>
-      <c r="E290" s="5">
-        <v>1.635</v>
+      <c r="E290" s="7">
+        <v>1635</v>
       </c>
       <c r="F290" s="5">
         <v>359</v>
@@ -12547,15 +12563,15 @@
       <c r="L290" s="5">
         <v>170</v>
       </c>
-      <c r="M290" s="5">
-        <v>4.7060000000000004</v>
+      <c r="M290" s="7">
+        <v>4706</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -13546,8 +13562,8 @@
       <c r="L315" s="4">
         <v>7</v>
       </c>
-      <c r="M315" s="5">
-        <v>1.2649999999999999</v>
+      <c r="M315" s="7">
+        <v>1265</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13561,20 +13577,20 @@
       <c r="D316" s="5">
         <v>809</v>
       </c>
-      <c r="E316" s="5">
-        <v>5.1959999999999997</v>
+      <c r="E316" s="7">
+        <v>5196</v>
       </c>
       <c r="F316" s="5">
         <v>765</v>
       </c>
-      <c r="G316" s="5">
-        <v>1.488</v>
-      </c>
-      <c r="H316" s="5">
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="I316" s="5">
-        <v>1.268</v>
+      <c r="G316" s="7">
+        <v>1488</v>
+      </c>
+      <c r="H316" s="7">
+        <v>2425</v>
+      </c>
+      <c r="I316" s="7">
+        <v>1268</v>
       </c>
       <c r="J316" s="5">
         <v>99</v>
@@ -13585,15 +13601,15 @@
       <c r="L316" s="5">
         <v>52</v>
       </c>
-      <c r="M316" s="5">
-        <v>12.569000000000001</v>
+      <c r="M316" s="7">
+        <v>12569</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -14599,17 +14615,17 @@
       <c r="D342" s="5">
         <v>406</v>
       </c>
-      <c r="E342" s="5">
-        <v>1.6180000000000001</v>
+      <c r="E342" s="7">
+        <v>1618</v>
       </c>
       <c r="F342" s="5">
         <v>536</v>
       </c>
-      <c r="G342" s="5">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H342" s="5">
-        <v>1.2689999999999999</v>
+      <c r="G342" s="7">
+        <v>1078</v>
+      </c>
+      <c r="H342" s="7">
+        <v>1269</v>
       </c>
       <c r="I342" s="5">
         <v>489</v>
@@ -14623,15 +14639,15 @@
       <c r="L342" s="5">
         <v>12</v>
       </c>
-      <c r="M342" s="5">
-        <v>5.6589999999999998</v>
+      <c r="M342" s="7">
+        <v>5659</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14685,11 +14701,11 @@
       <c r="F344" s="4">
         <v>1</v>
       </c>
-      <c r="G344" s="4">
-        <v>2.028</v>
-      </c>
-      <c r="H344" s="4">
-        <v>5.1040000000000001</v>
+      <c r="G344" s="8">
+        <v>2028</v>
+      </c>
+      <c r="H344" s="8">
+        <v>5104</v>
       </c>
       <c r="I344" s="4">
         <v>940</v>
@@ -14703,8 +14719,8 @@
       <c r="L344" s="4">
         <v>70</v>
       </c>
-      <c r="M344" s="5">
-        <v>8.1929999999999996</v>
+      <c r="M344" s="7">
+        <v>8193</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14724,14 +14740,14 @@
       <c r="F345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G345" s="4">
-        <v>1.615</v>
-      </c>
-      <c r="H345" s="4">
-        <v>5.0229999999999997</v>
-      </c>
-      <c r="I345" s="4">
-        <v>1.387</v>
+      <c r="G345" s="8">
+        <v>1615</v>
+      </c>
+      <c r="H345" s="8">
+        <v>5023</v>
+      </c>
+      <c r="I345" s="8">
+        <v>1387</v>
       </c>
       <c r="J345" s="4">
         <v>7</v>
@@ -14742,8 +14758,8 @@
       <c r="L345" s="4">
         <v>28</v>
       </c>
-      <c r="M345" s="5">
-        <v>8.1020000000000003</v>
+      <c r="M345" s="7">
+        <v>8102</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14765,14 +14781,14 @@
       <c r="F346" s="4">
         <v>19</v>
       </c>
-      <c r="G346" s="4">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="H346" s="4">
-        <v>1.619</v>
-      </c>
-      <c r="I346" s="4">
-        <v>1.877</v>
+      <c r="G346" s="8">
+        <v>1563</v>
+      </c>
+      <c r="H346" s="8">
+        <v>1619</v>
+      </c>
+      <c r="I346" s="8">
+        <v>1877</v>
       </c>
       <c r="J346" s="4">
         <v>148</v>
@@ -14783,8 +14799,8 @@
       <c r="L346" s="4">
         <v>28</v>
       </c>
-      <c r="M346" s="5">
-        <v>5.306</v>
+      <c r="M346" s="7">
+        <v>5306</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14804,14 +14820,14 @@
       <c r="F347" s="4">
         <v>51</v>
       </c>
-      <c r="G347" s="4">
-        <v>1.294</v>
-      </c>
-      <c r="H347" s="4">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="I347" s="4">
-        <v>2.403</v>
+      <c r="G347" s="8">
+        <v>1294</v>
+      </c>
+      <c r="H347" s="8">
+        <v>1106</v>
+      </c>
+      <c r="I347" s="8">
+        <v>2403</v>
       </c>
       <c r="J347" s="4">
         <v>167</v>
@@ -14822,8 +14838,8 @@
       <c r="L347" s="4">
         <v>29</v>
       </c>
-      <c r="M347" s="5">
-        <v>5.1959999999999997</v>
+      <c r="M347" s="7">
+        <v>5196</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14848,11 +14864,11 @@
       <c r="G348" s="4">
         <v>577</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.173</v>
-      </c>
-      <c r="I348" s="4">
-        <v>1.5649999999999999</v>
+      <c r="H348" s="8">
+        <v>1173</v>
+      </c>
+      <c r="I348" s="8">
+        <v>1565</v>
       </c>
       <c r="J348" s="4">
         <v>166</v>
@@ -14863,8 +14879,8 @@
       <c r="L348" s="4">
         <v>31</v>
       </c>
-      <c r="M348" s="5">
-        <v>4.4980000000000002</v>
+      <c r="M348" s="7">
+        <v>4498</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14887,11 +14903,11 @@
       <c r="G349" s="4">
         <v>430</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="I349" s="4">
-        <v>1.613</v>
+      <c r="H349" s="8">
+        <v>1078</v>
+      </c>
+      <c r="I349" s="8">
+        <v>1613</v>
       </c>
       <c r="J349" s="4">
         <v>154</v>
@@ -14902,8 +14918,8 @@
       <c r="L349" s="4">
         <v>28</v>
       </c>
-      <c r="M349" s="5">
-        <v>4.4340000000000002</v>
+      <c r="M349" s="7">
+        <v>4434</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14928,11 +14944,11 @@
       <c r="G350" s="4">
         <v>539</v>
       </c>
-      <c r="H350" s="4">
-        <v>1.399</v>
-      </c>
-      <c r="I350" s="4">
-        <v>1.306</v>
+      <c r="H350" s="8">
+        <v>1399</v>
+      </c>
+      <c r="I350" s="8">
+        <v>1306</v>
       </c>
       <c r="J350" s="4">
         <v>205</v>
@@ -14943,8 +14959,8 @@
       <c r="L350" s="4">
         <v>24</v>
       </c>
-      <c r="M350" s="5">
-        <v>4.9279999999999999</v>
+      <c r="M350" s="7">
+        <v>4928</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14958,8 +14974,8 @@
       <c r="D351" s="4">
         <v>58</v>
       </c>
-      <c r="E351" s="4">
-        <v>1.0249999999999999</v>
+      <c r="E351" s="8">
+        <v>1025</v>
       </c>
       <c r="F351" s="4">
         <v>853</v>
@@ -14967,11 +14983,11 @@
       <c r="G351" s="4">
         <v>468</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="I351" s="4">
-        <v>1.1259999999999999</v>
+      <c r="H351" s="8">
+        <v>1215</v>
+      </c>
+      <c r="I351" s="8">
+        <v>1126</v>
       </c>
       <c r="J351" s="4">
         <v>118</v>
@@ -14982,8 +14998,8 @@
       <c r="L351" s="4">
         <v>29</v>
       </c>
-      <c r="M351" s="5">
-        <v>4.931</v>
+      <c r="M351" s="7">
+        <v>4931</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -15008,11 +15024,11 @@
       <c r="G352" s="4">
         <v>968</v>
       </c>
-      <c r="H352" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="I352" s="4">
-        <v>1.016</v>
+      <c r="H352" s="8">
+        <v>1572</v>
+      </c>
+      <c r="I352" s="8">
+        <v>1016</v>
       </c>
       <c r="J352" s="4">
         <v>238</v>
@@ -15023,8 +15039,8 @@
       <c r="L352" s="4">
         <v>29</v>
       </c>
-      <c r="M352" s="5">
-        <v>5.25</v>
+      <c r="M352" s="7">
+        <v>5250</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15038,8 +15054,8 @@
       <c r="D353" s="4">
         <v>49</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.665</v>
+      <c r="E353" s="8">
+        <v>1665</v>
       </c>
       <c r="F353" s="4">
         <v>623</v>
@@ -15047,8 +15063,8 @@
       <c r="G353" s="4">
         <v>724</v>
       </c>
-      <c r="H353" s="4">
-        <v>1.2230000000000001</v>
+      <c r="H353" s="8">
+        <v>1223</v>
       </c>
       <c r="I353" s="4">
         <v>872</v>
@@ -15062,8 +15078,8 @@
       <c r="L353" s="4">
         <v>40</v>
       </c>
-      <c r="M353" s="5">
-        <v>5.375</v>
+      <c r="M353" s="7">
+        <v>5375</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15088,8 +15104,8 @@
       <c r="G354" s="4">
         <v>720</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.2989999999999999</v>
+      <c r="H354" s="8">
+        <v>1299</v>
       </c>
       <c r="I354" s="4">
         <v>840</v>
@@ -15103,8 +15119,8 @@
       <c r="L354" s="4">
         <v>28</v>
       </c>
-      <c r="M354" s="5">
-        <v>4.8090000000000002</v>
+      <c r="M354" s="7">
+        <v>4809</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15118,8 +15134,8 @@
       <c r="D355" s="4">
         <v>60</v>
       </c>
-      <c r="E355" s="4">
-        <v>2.0529999999999999</v>
+      <c r="E355" s="8">
+        <v>2053</v>
       </c>
       <c r="F355" s="4">
         <v>736</v>
@@ -15142,8 +15158,8 @@
       <c r="L355" s="4">
         <v>31</v>
       </c>
-      <c r="M355" s="5">
-        <v>5.069</v>
+      <c r="M355" s="7">
+        <v>5069</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15159,8 +15175,8 @@
       <c r="D356" s="4">
         <v>13</v>
       </c>
-      <c r="E356" s="4">
-        <v>1.248</v>
+      <c r="E356" s="8">
+        <v>1248</v>
       </c>
       <c r="F356" s="4">
         <v>858</v>
@@ -15183,8 +15199,8 @@
       <c r="L356" s="4">
         <v>36</v>
       </c>
-      <c r="M356" s="5">
-        <v>4.7750000000000004</v>
+      <c r="M356" s="7">
+        <v>4775</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15198,8 +15214,8 @@
       <c r="D357" s="4">
         <v>113</v>
       </c>
-      <c r="E357" s="4">
-        <v>2.3090000000000002</v>
+      <c r="E357" s="8">
+        <v>2309</v>
       </c>
       <c r="F357" s="4">
         <v>724</v>
@@ -15222,8 +15238,8 @@
       <c r="L357" s="4">
         <v>39</v>
       </c>
-      <c r="M357" s="5">
-        <v>4.9980000000000002</v>
+      <c r="M357" s="7">
+        <v>4998</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15239,8 +15255,8 @@
       <c r="D358" s="4">
         <v>10</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.3580000000000001</v>
+      <c r="E358" s="8">
+        <v>1358</v>
       </c>
       <c r="F358" s="4">
         <v>729</v>
@@ -15263,8 +15279,8 @@
       <c r="L358" s="4">
         <v>21</v>
       </c>
-      <c r="M358" s="5">
-        <v>4.4279999999999999</v>
+      <c r="M358" s="7">
+        <v>4428</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15278,8 +15294,8 @@
       <c r="D359" s="4">
         <v>166</v>
       </c>
-      <c r="E359" s="4">
-        <v>2.5270000000000001</v>
+      <c r="E359" s="8">
+        <v>2527</v>
       </c>
       <c r="F359" s="4">
         <v>500</v>
@@ -15302,8 +15318,8 @@
       <c r="L359" s="4">
         <v>36</v>
       </c>
-      <c r="M359" s="5">
-        <v>4.6989999999999998</v>
+      <c r="M359" s="7">
+        <v>4699</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15319,8 +15335,8 @@
       <c r="D360" s="4">
         <v>25</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.5620000000000001</v>
+      <c r="E360" s="8">
+        <v>1562</v>
       </c>
       <c r="F360" s="4">
         <v>411</v>
@@ -15343,8 +15359,8 @@
       <c r="L360" s="4">
         <v>37</v>
       </c>
-      <c r="M360" s="5">
-        <v>3.8290000000000002</v>
+      <c r="M360" s="7">
+        <v>3829</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15358,8 +15374,8 @@
       <c r="D361" s="4">
         <v>219</v>
       </c>
-      <c r="E361" s="4">
-        <v>2.4830000000000001</v>
+      <c r="E361" s="8">
+        <v>2483</v>
       </c>
       <c r="F361" s="4">
         <v>232</v>
@@ -15382,8 +15398,8 @@
       <c r="L361" s="4">
         <v>31</v>
       </c>
-      <c r="M361" s="5">
-        <v>4.008</v>
+      <c r="M361" s="7">
+        <v>4008</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15399,8 +15415,8 @@
       <c r="D362" s="4">
         <v>53</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.655</v>
+      <c r="E362" s="8">
+        <v>1655</v>
       </c>
       <c r="F362" s="4">
         <v>183</v>
@@ -15423,8 +15439,8 @@
       <c r="L362" s="4">
         <v>26</v>
       </c>
-      <c r="M362" s="5">
-        <v>3.0640000000000001</v>
+      <c r="M362" s="7">
+        <v>3064</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15438,8 +15454,8 @@
       <c r="D363" s="4">
         <v>335</v>
       </c>
-      <c r="E363" s="4">
-        <v>2.1549999999999998</v>
+      <c r="E363" s="8">
+        <v>2155</v>
       </c>
       <c r="F363" s="4">
         <v>95</v>
@@ -15462,8 +15478,8 @@
       <c r="L363" s="4">
         <v>45</v>
       </c>
-      <c r="M363" s="5">
-        <v>3.4590000000000001</v>
+      <c r="M363" s="7">
+        <v>3459</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15479,8 +15495,8 @@
       <c r="D364" s="4">
         <v>53</v>
       </c>
-      <c r="E364" s="4">
-        <v>1.37</v>
+      <c r="E364" s="8">
+        <v>1370</v>
       </c>
       <c r="F364" s="4">
         <v>57</v>
@@ -15503,8 +15519,8 @@
       <c r="L364" s="4">
         <v>23</v>
       </c>
-      <c r="M364" s="5">
-        <v>2.1230000000000002</v>
+      <c r="M364" s="7">
+        <v>2123</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15518,8 +15534,8 @@
       <c r="D365" s="4">
         <v>414</v>
       </c>
-      <c r="E365" s="4">
-        <v>1.5129999999999999</v>
+      <c r="E365" s="8">
+        <v>1513</v>
       </c>
       <c r="F365" s="4">
         <v>26</v>
@@ -15542,8 +15558,8 @@
       <c r="L365" s="4">
         <v>31</v>
       </c>
-      <c r="M365" s="5">
-        <v>2.6520000000000001</v>
+      <c r="M365" s="7">
+        <v>2652</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15559,8 +15575,8 @@
       <c r="D366" s="4">
         <v>226</v>
       </c>
-      <c r="E366" s="4">
-        <v>1.609</v>
+      <c r="E366" s="8">
+        <v>1609</v>
       </c>
       <c r="F366" s="4">
         <v>24</v>
@@ -15583,8 +15599,8 @@
       <c r="L366" s="4">
         <v>54</v>
       </c>
-      <c r="M366" s="5">
-        <v>2.5659999999999998</v>
+      <c r="M366" s="7">
+        <v>2566</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15592,14 +15608,14 @@
       <c r="B367" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C367" s="4">
-        <v>1.25</v>
+      <c r="C367" s="8">
+        <v>1250</v>
       </c>
       <c r="D367" s="4">
         <v>832</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.403</v>
+      <c r="E367" s="8">
+        <v>1403</v>
       </c>
       <c r="F367" s="4">
         <v>9</v>
@@ -15622,8 +15638,8 @@
       <c r="L367" s="4">
         <v>49</v>
       </c>
-      <c r="M367" s="5">
-        <v>3.6760000000000002</v>
+      <c r="M367" s="7">
+        <v>3676</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15631,29 +15647,29 @@
         <v>12</v>
       </c>
       <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>2.7690000000000001</v>
-      </c>
-      <c r="D368" s="5">
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="E368" s="5">
-        <v>28.334</v>
-      </c>
-      <c r="F368" s="5">
-        <v>10.355</v>
-      </c>
-      <c r="G368" s="5">
-        <v>16.443999999999999</v>
-      </c>
-      <c r="H368" s="5">
-        <v>28.177</v>
-      </c>
-      <c r="I368" s="5">
-        <v>18.565000000000001</v>
-      </c>
-      <c r="J368" s="5">
-        <v>1.847</v>
+      <c r="C368" s="7">
+        <v>2769</v>
+      </c>
+      <c r="D368" s="7">
+        <v>2904</v>
+      </c>
+      <c r="E368" s="7">
+        <v>28334</v>
+      </c>
+      <c r="F368" s="7">
+        <v>10355</v>
+      </c>
+      <c r="G368" s="7">
+        <v>16444</v>
+      </c>
+      <c r="H368" s="7">
+        <v>28177</v>
+      </c>
+      <c r="I368" s="7">
+        <v>18565</v>
+      </c>
+      <c r="J368" s="7">
+        <v>1847</v>
       </c>
       <c r="K368" s="5">
         <v>150</v>
@@ -15661,15 +15677,15 @@
       <c r="L368" s="5">
         <v>823</v>
       </c>
-      <c r="M368" s="5">
-        <v>110.36799999999999</v>
+      <c r="M368" s="7">
+        <v>110368</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="11"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -16675,17 +16691,17 @@
       <c r="D394" s="5">
         <v>256</v>
       </c>
-      <c r="E394" s="5">
-        <v>2.5259999999999998</v>
+      <c r="E394" s="7">
+        <v>2526</v>
       </c>
       <c r="F394" s="5">
         <v>959</v>
       </c>
-      <c r="G394" s="5">
-        <v>1.069</v>
-      </c>
-      <c r="H394" s="5">
-        <v>1.2</v>
+      <c r="G394" s="7">
+        <v>1069</v>
+      </c>
+      <c r="H394" s="7">
+        <v>1200</v>
       </c>
       <c r="I394" s="5">
         <v>549</v>
@@ -16699,15 +16715,15 @@
       <c r="L394" s="5">
         <v>109</v>
       </c>
-      <c r="M394" s="5">
-        <v>6.8940000000000001</v>
+      <c r="M394" s="7">
+        <v>6894</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="11"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -17713,17 +17729,17 @@
       <c r="D420" s="5">
         <v>401</v>
       </c>
-      <c r="E420" s="5">
-        <v>2.8370000000000002</v>
+      <c r="E420" s="7">
+        <v>2837</v>
       </c>
       <c r="F420" s="5">
         <v>802</v>
       </c>
-      <c r="G420" s="5">
-        <v>1.605</v>
-      </c>
-      <c r="H420" s="5">
-        <v>1.8320000000000001</v>
+      <c r="G420" s="7">
+        <v>1605</v>
+      </c>
+      <c r="H420" s="7">
+        <v>1832</v>
       </c>
       <c r="I420" s="5">
         <v>906</v>
@@ -17737,15 +17753,15 @@
       <c r="L420" s="5">
         <v>36</v>
       </c>
-      <c r="M420" s="5">
-        <v>8.7439999999999998</v>
+      <c r="M420" s="7">
+        <v>8744</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="11"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -18751,8 +18767,8 @@
       <c r="D446" s="5">
         <v>144</v>
       </c>
-      <c r="E446" s="5">
-        <v>1.4339999999999999</v>
+      <c r="E446" s="7">
+        <v>1434</v>
       </c>
       <c r="F446" s="5">
         <v>323</v>
@@ -18775,15 +18791,15 @@
       <c r="L446" s="5">
         <v>14</v>
       </c>
-      <c r="M446" s="5">
-        <v>3.29</v>
+      <c r="M446" s="7">
+        <v>3290</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B447" s="8"/>
+      <c r="B447" s="11"/>
       <c r="C447" s="2" t="s">
         <v>2</v>
       </c>
@@ -19774,8 +19790,8 @@
       <c r="L471" s="4">
         <v>10</v>
       </c>
-      <c r="M471" s="5">
-        <v>1.0569999999999999</v>
+      <c r="M471" s="7">
+        <v>1057</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
@@ -19789,20 +19805,20 @@
       <c r="D472" s="5">
         <v>838</v>
       </c>
-      <c r="E472" s="5">
-        <v>4.859</v>
+      <c r="E472" s="7">
+        <v>4859</v>
       </c>
       <c r="F472" s="5">
         <v>985</v>
       </c>
-      <c r="G472" s="5">
-        <v>1.772</v>
-      </c>
-      <c r="H472" s="5">
-        <v>2.399</v>
-      </c>
-      <c r="I472" s="5">
-        <v>1.097</v>
+      <c r="G472" s="7">
+        <v>1772</v>
+      </c>
+      <c r="H472" s="7">
+        <v>2399</v>
+      </c>
+      <c r="I472" s="7">
+        <v>1097</v>
       </c>
       <c r="J472" s="5">
         <v>71</v>
@@ -19813,15 +19829,15 @@
       <c r="L472" s="5">
         <v>120</v>
       </c>
-      <c r="M472" s="5">
-        <v>12.561</v>
+      <c r="M472" s="7">
+        <v>12561</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B473" s="8"/>
+      <c r="B473" s="11"/>
       <c r="C473" s="2" t="s">
         <v>2</v>
       </c>
@@ -19878,8 +19894,8 @@
       <c r="G474" s="4">
         <v>646</v>
       </c>
-      <c r="H474" s="4">
-        <v>1.8080000000000001</v>
+      <c r="H474" s="8">
+        <v>1808</v>
       </c>
       <c r="I474" s="4">
         <v>288</v>
@@ -19893,8 +19909,8 @@
       <c r="L474" s="4">
         <v>16</v>
       </c>
-      <c r="M474" s="5">
-        <v>2.7810000000000001</v>
+      <c r="M474" s="7">
+        <v>2781</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -19917,8 +19933,8 @@
       <c r="G475" s="4">
         <v>577</v>
       </c>
-      <c r="H475" s="4">
-        <v>1.6859999999999999</v>
+      <c r="H475" s="8">
+        <v>1686</v>
       </c>
       <c r="I475" s="4">
         <v>491</v>
@@ -19932,8 +19948,8 @@
       <c r="L475" s="4">
         <v>4</v>
       </c>
-      <c r="M475" s="5">
-        <v>2.7759999999999998</v>
+      <c r="M475" s="7">
+        <v>2776</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -19973,8 +19989,8 @@
       <c r="L476" s="4">
         <v>5</v>
       </c>
-      <c r="M476" s="5">
-        <v>1.645</v>
+      <c r="M476" s="7">
+        <v>1645</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -20012,8 +20028,8 @@
       <c r="L477" s="4">
         <v>6</v>
       </c>
-      <c r="M477" s="5">
-        <v>1.639</v>
+      <c r="M477" s="7">
+        <v>1639</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -20053,8 +20069,8 @@
       <c r="L478" s="4">
         <v>5</v>
       </c>
-      <c r="M478" s="5">
-        <v>1.522</v>
+      <c r="M478" s="7">
+        <v>1522</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -20092,8 +20108,8 @@
       <c r="L479" s="4">
         <v>1</v>
       </c>
-      <c r="M479" s="5">
-        <v>1.5129999999999999</v>
+      <c r="M479" s="7">
+        <v>1513</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
@@ -20133,8 +20149,8 @@
       <c r="L480" s="4">
         <v>2</v>
       </c>
-      <c r="M480" s="5">
-        <v>1.7130000000000001</v>
+      <c r="M480" s="7">
+        <v>1713</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -20172,8 +20188,8 @@
       <c r="L481" s="4">
         <v>6</v>
       </c>
-      <c r="M481" s="5">
-        <v>1.629</v>
+      <c r="M481" s="7">
+        <v>1629</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -20213,8 +20229,8 @@
       <c r="L482" s="4">
         <v>3</v>
       </c>
-      <c r="M482" s="5">
-        <v>1.6659999999999999</v>
+      <c r="M482" s="7">
+        <v>1666</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -20252,8 +20268,8 @@
       <c r="L483" s="4">
         <v>11</v>
       </c>
-      <c r="M483" s="5">
-        <v>1.6579999999999999</v>
+      <c r="M483" s="7">
+        <v>1658</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -20293,8 +20309,8 @@
       <c r="L484" s="4">
         <v>7</v>
       </c>
-      <c r="M484" s="5">
-        <v>1.6459999999999999</v>
+      <c r="M484" s="7">
+        <v>1646</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -20332,8 +20348,8 @@
       <c r="L485" s="4">
         <v>6</v>
       </c>
-      <c r="M485" s="5">
-        <v>1.7450000000000001</v>
+      <c r="M485" s="7">
+        <v>1745</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20373,8 +20389,8 @@
       <c r="L486" s="4">
         <v>10</v>
       </c>
-      <c r="M486" s="5">
-        <v>1.6739999999999999</v>
+      <c r="M486" s="7">
+        <v>1674</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20388,8 +20404,8 @@
       <c r="D487" s="4">
         <v>74</v>
       </c>
-      <c r="E487" s="4">
-        <v>1.024</v>
+      <c r="E487" s="8">
+        <v>1024</v>
       </c>
       <c r="F487" s="4">
         <v>186</v>
@@ -20412,8 +20428,8 @@
       <c r="L487" s="4">
         <v>2</v>
       </c>
-      <c r="M487" s="5">
-        <v>1.8440000000000001</v>
+      <c r="M487" s="7">
+        <v>1844</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20453,8 +20469,8 @@
       <c r="L488" s="4">
         <v>11</v>
       </c>
-      <c r="M488" s="5">
-        <v>1.8160000000000001</v>
+      <c r="M488" s="7">
+        <v>1816</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20468,8 +20484,8 @@
       <c r="D489" s="4">
         <v>116</v>
       </c>
-      <c r="E489" s="4">
-        <v>1.2230000000000001</v>
+      <c r="E489" s="8">
+        <v>1223</v>
       </c>
       <c r="F489" s="4">
         <v>112</v>
@@ -20492,8 +20508,8 @@
       <c r="L489" s="4">
         <v>10</v>
       </c>
-      <c r="M489" s="5">
-        <v>1.901</v>
+      <c r="M489" s="7">
+        <v>1901</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -20533,8 +20549,8 @@
       <c r="L490" s="4">
         <v>11</v>
       </c>
-      <c r="M490" s="5">
-        <v>1.7629999999999999</v>
+      <c r="M490" s="7">
+        <v>1763</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -20548,8 +20564,8 @@
       <c r="D491" s="4">
         <v>181</v>
       </c>
-      <c r="E491" s="4">
-        <v>1.274</v>
+      <c r="E491" s="8">
+        <v>1274</v>
       </c>
       <c r="F491" s="4">
         <v>38</v>
@@ -20572,8 +20588,8 @@
       <c r="L491" s="4">
         <v>4</v>
       </c>
-      <c r="M491" s="5">
-        <v>1.8420000000000001</v>
+      <c r="M491" s="7">
+        <v>1842</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -20613,8 +20629,8 @@
       <c r="L492" s="4">
         <v>2</v>
       </c>
-      <c r="M492" s="5">
-        <v>1.3580000000000001</v>
+      <c r="M492" s="7">
+        <v>1358</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -20652,8 +20668,8 @@
       <c r="L493" s="4">
         <v>5</v>
       </c>
-      <c r="M493" s="5">
-        <v>1.4910000000000001</v>
+      <c r="M493" s="7">
+        <v>1491</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -20693,8 +20709,8 @@
       <c r="L494" s="4">
         <v>2</v>
       </c>
-      <c r="M494" s="5">
-        <v>1.0900000000000001</v>
+      <c r="M494" s="7">
+        <v>1090</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -20732,8 +20748,8 @@
       <c r="L495" s="4">
         <v>1</v>
       </c>
-      <c r="M495" s="5">
-        <v>1.296</v>
+      <c r="M495" s="7">
+        <v>1296</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -20773,8 +20789,8 @@
       <c r="L496" s="4">
         <v>1</v>
       </c>
-      <c r="M496" s="5">
-        <v>1.353</v>
+      <c r="M496" s="7">
+        <v>1353</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20812,8 +20828,8 @@
       <c r="L497" s="4">
         <v>8</v>
       </c>
-      <c r="M497" s="5">
-        <v>2.0329999999999999</v>
+      <c r="M497" s="7">
+        <v>2033</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
@@ -20821,26 +20837,26 @@
         <v>12</v>
       </c>
       <c r="B498" s="6"/>
-      <c r="C498" s="5">
-        <v>1.472</v>
-      </c>
-      <c r="D498" s="5">
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="E498" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F498" s="5">
-        <v>3.4159999999999999</v>
-      </c>
-      <c r="G498" s="5">
-        <v>6.0629999999999997</v>
-      </c>
-      <c r="H498" s="5">
-        <v>10.302</v>
-      </c>
-      <c r="I498" s="5">
-        <v>4.8789999999999996</v>
+      <c r="C498" s="7">
+        <v>1472</v>
+      </c>
+      <c r="D498" s="7">
+        <v>2075</v>
+      </c>
+      <c r="E498" s="7">
+        <v>12500</v>
+      </c>
+      <c r="F498" s="7">
+        <v>3416</v>
+      </c>
+      <c r="G498" s="7">
+        <v>6063</v>
+      </c>
+      <c r="H498" s="7">
+        <v>10302</v>
+      </c>
+      <c r="I498" s="7">
+        <v>4879</v>
       </c>
       <c r="J498" s="5">
         <v>525</v>
@@ -20851,15 +20867,15 @@
       <c r="L498" s="5">
         <v>139</v>
       </c>
-      <c r="M498" s="5">
-        <v>41.393999999999998</v>
+      <c r="M498" s="7">
+        <v>41394</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A499" s="8" t="s">
+      <c r="A499" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B499" s="8"/>
+      <c r="B499" s="11"/>
       <c r="C499" s="2" t="s">
         <v>2</v>
       </c>
@@ -20916,8 +20932,8 @@
       <c r="G500" s="4">
         <v>585</v>
       </c>
-      <c r="H500" s="4">
-        <v>1.073</v>
+      <c r="H500" s="8">
+        <v>1073</v>
       </c>
       <c r="I500" s="4">
         <v>174</v>
@@ -20931,8 +20947,8 @@
       <c r="L500" s="4">
         <v>16</v>
       </c>
-      <c r="M500" s="5">
-        <v>1.8540000000000001</v>
+      <c r="M500" s="7">
+        <v>1854</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
@@ -20970,8 +20986,8 @@
       <c r="L501" s="4">
         <v>2</v>
       </c>
-      <c r="M501" s="5">
-        <v>1.76</v>
+      <c r="M501" s="7">
+        <v>1760</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
@@ -21011,8 +21027,8 @@
       <c r="L502" s="4">
         <v>3</v>
       </c>
-      <c r="M502" s="5">
-        <v>1.093</v>
+      <c r="M502" s="7">
+        <v>1093</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
@@ -21091,8 +21107,8 @@
       <c r="L504" s="4">
         <v>2</v>
       </c>
-      <c r="M504" s="5">
-        <v>1</v>
+      <c r="M504" s="7">
+        <v>1000</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.25">
@@ -21171,8 +21187,8 @@
       <c r="L506" s="4">
         <v>4</v>
       </c>
-      <c r="M506" s="5">
-        <v>1.046</v>
+      <c r="M506" s="7">
+        <v>1046</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
@@ -21411,8 +21427,8 @@
       <c r="L512" s="4">
         <v>6</v>
       </c>
-      <c r="M512" s="5">
-        <v>1.004</v>
+      <c r="M512" s="7">
+        <v>1004</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.25">
@@ -21530,8 +21546,8 @@
       <c r="L515" s="4">
         <v>2</v>
       </c>
-      <c r="M515" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M515" s="7">
+        <v>1029</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.25">
@@ -21862,23 +21878,23 @@
       <c r="C524" s="5">
         <v>561</v>
       </c>
-      <c r="D524" s="5">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="E524" s="5">
-        <v>7.2629999999999999</v>
-      </c>
-      <c r="F524" s="5">
-        <v>2.4510000000000001</v>
-      </c>
-      <c r="G524" s="5">
-        <v>3.7530000000000001</v>
-      </c>
-      <c r="H524" s="5">
-        <v>4.923</v>
-      </c>
-      <c r="I524" s="5">
-        <v>2.13</v>
+      <c r="D524" s="7">
+        <v>1287</v>
+      </c>
+      <c r="E524" s="7">
+        <v>7263</v>
+      </c>
+      <c r="F524" s="7">
+        <v>2451</v>
+      </c>
+      <c r="G524" s="7">
+        <v>3753</v>
+      </c>
+      <c r="H524" s="7">
+        <v>4923</v>
+      </c>
+      <c r="I524" s="7">
+        <v>2130</v>
       </c>
       <c r="J524" s="5">
         <v>185</v>
@@ -21889,15 +21905,15 @@
       <c r="L524" s="5">
         <v>65</v>
       </c>
-      <c r="M524" s="5">
-        <v>22.623999999999999</v>
+      <c r="M524" s="7">
+        <v>22624</v>
       </c>
     </row>
     <row r="525" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A525" s="8" t="s">
+      <c r="A525" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B525" s="8"/>
+      <c r="B525" s="11"/>
       <c r="C525" s="2" t="s">
         <v>2</v>
       </c>
@@ -21951,11 +21967,11 @@
       <c r="F526" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G526" s="4">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="H526" s="4">
-        <v>1.5429999999999999</v>
+      <c r="G526" s="8">
+        <v>1189</v>
+      </c>
+      <c r="H526" s="8">
+        <v>1543</v>
       </c>
       <c r="I526" s="4">
         <v>313</v>
@@ -21969,8 +21985,8 @@
       <c r="L526" s="4">
         <v>15</v>
       </c>
-      <c r="M526" s="5">
-        <v>3.0750000000000002</v>
+      <c r="M526" s="7">
+        <v>3075</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
@@ -21993,8 +22009,8 @@
       <c r="G527" s="4">
         <v>725</v>
       </c>
-      <c r="H527" s="4">
-        <v>1.6930000000000001</v>
+      <c r="H527" s="8">
+        <v>1693</v>
       </c>
       <c r="I527" s="4">
         <v>537</v>
@@ -22008,8 +22024,8 @@
       <c r="L527" s="4">
         <v>6</v>
       </c>
-      <c r="M527" s="5">
-        <v>2.98</v>
+      <c r="M527" s="7">
+        <v>2980</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
@@ -22049,8 +22065,8 @@
       <c r="L528" s="4">
         <v>6</v>
       </c>
-      <c r="M528" s="5">
-        <v>2.0259999999999998</v>
+      <c r="M528" s="7">
+        <v>2026</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.25">
@@ -22088,8 +22104,8 @@
       <c r="L529" s="4">
         <v>4</v>
       </c>
-      <c r="M529" s="5">
-        <v>1.901</v>
+      <c r="M529" s="7">
+        <v>1901</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
@@ -22129,8 +22145,8 @@
       <c r="L530" s="4">
         <v>2</v>
       </c>
-      <c r="M530" s="5">
-        <v>1.6819999999999999</v>
+      <c r="M530" s="7">
+        <v>1682</v>
       </c>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
@@ -22168,8 +22184,8 @@
       <c r="L531" s="4">
         <v>4</v>
       </c>
-      <c r="M531" s="5">
-        <v>1.5169999999999999</v>
+      <c r="M531" s="7">
+        <v>1517</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.25">
@@ -22209,8 +22225,8 @@
       <c r="L532" s="4">
         <v>5</v>
       </c>
-      <c r="M532" s="5">
-        <v>1.73</v>
+      <c r="M532" s="7">
+        <v>1730</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
@@ -22248,8 +22264,8 @@
       <c r="L533" s="4">
         <v>2</v>
       </c>
-      <c r="M533" s="5">
-        <v>1.5469999999999999</v>
+      <c r="M533" s="7">
+        <v>1547</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
@@ -22289,8 +22305,8 @@
       <c r="L534" s="4">
         <v>4</v>
       </c>
-      <c r="M534" s="5">
-        <v>1.7709999999999999</v>
+      <c r="M534" s="7">
+        <v>1771</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
@@ -22328,8 +22344,8 @@
       <c r="L535" s="4">
         <v>4</v>
       </c>
-      <c r="M535" s="5">
-        <v>1.5820000000000001</v>
+      <c r="M535" s="7">
+        <v>1582</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.25">
@@ -22369,8 +22385,8 @@
       <c r="L536" s="4">
         <v>5</v>
       </c>
-      <c r="M536" s="5">
-        <v>1.554</v>
+      <c r="M536" s="7">
+        <v>1554</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.25">
@@ -22408,8 +22424,8 @@
       <c r="L537" s="4">
         <v>2</v>
       </c>
-      <c r="M537" s="5">
-        <v>1.4950000000000001</v>
+      <c r="M537" s="7">
+        <v>1495</v>
       </c>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.25">
@@ -22449,8 +22465,8 @@
       <c r="L538" s="4">
         <v>4</v>
       </c>
-      <c r="M538" s="5">
-        <v>1.5069999999999999</v>
+      <c r="M538" s="7">
+        <v>1507</v>
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.25">
@@ -22488,8 +22504,8 @@
       <c r="L539" s="4">
         <v>7</v>
       </c>
-      <c r="M539" s="5">
-        <v>1.508</v>
+      <c r="M539" s="7">
+        <v>1508</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.25">
@@ -22529,8 +22545,8 @@
       <c r="L540" s="4">
         <v>5</v>
       </c>
-      <c r="M540" s="5">
-        <v>1.397</v>
+      <c r="M540" s="7">
+        <v>1397</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.25">
@@ -22544,8 +22560,8 @@
       <c r="D541" s="4">
         <v>35</v>
       </c>
-      <c r="E541" s="4">
-        <v>1.008</v>
+      <c r="E541" s="8">
+        <v>1008</v>
       </c>
       <c r="F541" s="4">
         <v>139</v>
@@ -22568,8 +22584,8 @@
       <c r="L541" s="4">
         <v>2</v>
       </c>
-      <c r="M541" s="5">
-        <v>1.425</v>
+      <c r="M541" s="7">
+        <v>1425</v>
       </c>
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
@@ -22609,8 +22625,8 @@
       <c r="L542" s="4">
         <v>4</v>
       </c>
-      <c r="M542" s="5">
-        <v>1.0780000000000001</v>
+      <c r="M542" s="7">
+        <v>1078</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.25">
@@ -22648,8 +22664,8 @@
       <c r="L543" s="4">
         <v>2</v>
       </c>
-      <c r="M543" s="5">
-        <v>1.1619999999999999</v>
+      <c r="M543" s="7">
+        <v>1162</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.25">
@@ -22728,8 +22744,8 @@
       <c r="L545" s="4">
         <v>1</v>
       </c>
-      <c r="M545" s="5">
-        <v>1.0209999999999999</v>
+      <c r="M545" s="7">
+        <v>1021</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.25">
@@ -22888,8 +22904,8 @@
       <c r="L549" s="4">
         <v>2</v>
       </c>
-      <c r="M549" s="5">
-        <v>1.1679999999999999</v>
+      <c r="M549" s="7">
+        <v>1168</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.25">
@@ -22900,23 +22916,23 @@
       <c r="C550" s="5">
         <v>815</v>
       </c>
-      <c r="D550" s="5">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="E550" s="5">
-        <v>11.103999999999999</v>
-      </c>
-      <c r="F550" s="5">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="G550" s="5">
-        <v>6.1050000000000004</v>
-      </c>
-      <c r="H550" s="5">
-        <v>7.9550000000000001</v>
-      </c>
-      <c r="I550" s="5">
-        <v>4.718</v>
+      <c r="D550" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E550" s="7">
+        <v>11104</v>
+      </c>
+      <c r="F550" s="7">
+        <v>3723</v>
+      </c>
+      <c r="G550" s="7">
+        <v>6105</v>
+      </c>
+      <c r="H550" s="7">
+        <v>7955</v>
+      </c>
+      <c r="I550" s="7">
+        <v>4718</v>
       </c>
       <c r="J550" s="5">
         <v>400</v>
@@ -22927,15 +22943,15 @@
       <c r="L550" s="5">
         <v>91</v>
       </c>
-      <c r="M550" s="5">
-        <v>36.049999999999997</v>
+      <c r="M550" s="7">
+        <v>36050</v>
       </c>
     </row>
     <row r="551" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A551" s="8" t="s">
+      <c r="A551" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B551" s="8"/>
+      <c r="B551" s="11"/>
       <c r="C551" s="2" t="s">
         <v>2</v>
       </c>
@@ -22989,14 +23005,14 @@
       <c r="F552" s="4">
         <v>6</v>
       </c>
-      <c r="G552" s="4">
-        <v>7.4880000000000004</v>
-      </c>
-      <c r="H552" s="4">
-        <v>10.303000000000001</v>
-      </c>
-      <c r="I552" s="4">
-        <v>1.9770000000000001</v>
+      <c r="G552" s="8">
+        <v>7488</v>
+      </c>
+      <c r="H552" s="8">
+        <v>10303</v>
+      </c>
+      <c r="I552" s="8">
+        <v>1977</v>
       </c>
       <c r="J552" s="4">
         <v>16</v>
@@ -23007,8 +23023,8 @@
       <c r="L552" s="4">
         <v>297</v>
       </c>
-      <c r="M552" s="5">
-        <v>20.382000000000001</v>
+      <c r="M552" s="7">
+        <v>20382</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.25">
@@ -23028,14 +23044,14 @@
       <c r="F553" s="4">
         <v>3</v>
       </c>
-      <c r="G553" s="4">
-        <v>5.3120000000000003</v>
-      </c>
-      <c r="H553" s="4">
-        <v>11.721</v>
-      </c>
-      <c r="I553" s="4">
-        <v>3.4870000000000001</v>
+      <c r="G553" s="8">
+        <v>5312</v>
+      </c>
+      <c r="H553" s="8">
+        <v>11721</v>
+      </c>
+      <c r="I553" s="8">
+        <v>3487</v>
       </c>
       <c r="J553" s="4">
         <v>25</v>
@@ -23046,8 +23062,8 @@
       <c r="L553" s="4">
         <v>163</v>
       </c>
-      <c r="M553" s="5">
-        <v>21.137</v>
+      <c r="M553" s="7">
+        <v>21137</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
@@ -23069,14 +23085,14 @@
       <c r="F554" s="4">
         <v>119</v>
       </c>
-      <c r="G554" s="4">
-        <v>5.6710000000000003</v>
-      </c>
-      <c r="H554" s="4">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="I554" s="4">
-        <v>4.5449999999999999</v>
+      <c r="G554" s="8">
+        <v>5671</v>
+      </c>
+      <c r="H554" s="8">
+        <v>4062</v>
+      </c>
+      <c r="I554" s="8">
+        <v>4545</v>
       </c>
       <c r="J554" s="4">
         <v>341</v>
@@ -23087,8 +23103,8 @@
       <c r="L554" s="4">
         <v>148</v>
       </c>
-      <c r="M554" s="5">
-        <v>15.135999999999999</v>
+      <c r="M554" s="7">
+        <v>15136</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
@@ -23108,14 +23124,14 @@
       <c r="F555" s="4">
         <v>181</v>
       </c>
-      <c r="G555" s="4">
-        <v>4.8650000000000002</v>
-      </c>
-      <c r="H555" s="4">
-        <v>3.7250000000000001</v>
-      </c>
-      <c r="I555" s="4">
-        <v>6.274</v>
+      <c r="G555" s="8">
+        <v>4865</v>
+      </c>
+      <c r="H555" s="8">
+        <v>3725</v>
+      </c>
+      <c r="I555" s="8">
+        <v>6274</v>
       </c>
       <c r="J555" s="4">
         <v>453</v>
@@ -23126,8 +23142,8 @@
       <c r="L555" s="4">
         <v>179</v>
       </c>
-      <c r="M555" s="5">
-        <v>16.376999999999999</v>
+      <c r="M555" s="7">
+        <v>16377</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.25">
@@ -23146,17 +23162,17 @@
       <c r="E556" s="4">
         <v>154</v>
       </c>
-      <c r="F556" s="4">
-        <v>3.6150000000000002</v>
-      </c>
-      <c r="G556" s="4">
-        <v>2.165</v>
-      </c>
-      <c r="H556" s="4">
-        <v>3.5270000000000001</v>
-      </c>
-      <c r="I556" s="4">
-        <v>3.9079999999999999</v>
+      <c r="F556" s="8">
+        <v>3615</v>
+      </c>
+      <c r="G556" s="8">
+        <v>2165</v>
+      </c>
+      <c r="H556" s="8">
+        <v>3527</v>
+      </c>
+      <c r="I556" s="8">
+        <v>3908</v>
       </c>
       <c r="J556" s="4">
         <v>525</v>
@@ -23167,8 +23183,8 @@
       <c r="L556" s="4">
         <v>173</v>
       </c>
-      <c r="M556" s="5">
-        <v>14.282999999999999</v>
+      <c r="M556" s="7">
+        <v>14283</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.25">
@@ -23185,17 +23201,17 @@
       <c r="E557" s="4">
         <v>306</v>
       </c>
-      <c r="F557" s="4">
-        <v>4.0369999999999999</v>
-      </c>
-      <c r="G557" s="4">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="H557" s="4">
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="I557" s="4">
-        <v>4.0579999999999998</v>
+      <c r="F557" s="8">
+        <v>4037</v>
+      </c>
+      <c r="G557" s="8">
+        <v>1561</v>
+      </c>
+      <c r="H557" s="8">
+        <v>2928</v>
+      </c>
+      <c r="I557" s="8">
+        <v>4058</v>
       </c>
       <c r="J557" s="4">
         <v>446</v>
@@ -23206,8 +23222,8 @@
       <c r="L557" s="4">
         <v>192</v>
       </c>
-      <c r="M557" s="5">
-        <v>14.135999999999999</v>
+      <c r="M557" s="7">
+        <v>14136</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.25">
@@ -23223,20 +23239,20 @@
       <c r="D558" s="4">
         <v>120</v>
       </c>
-      <c r="E558" s="4">
-        <v>1.786</v>
-      </c>
-      <c r="F558" s="4">
-        <v>3.5059999999999998</v>
-      </c>
-      <c r="G558" s="4">
-        <v>1.671</v>
-      </c>
-      <c r="H558" s="4">
-        <v>3.6070000000000002</v>
-      </c>
-      <c r="I558" s="4">
-        <v>2.9580000000000002</v>
+      <c r="E558" s="8">
+        <v>1786</v>
+      </c>
+      <c r="F558" s="8">
+        <v>3506</v>
+      </c>
+      <c r="G558" s="8">
+        <v>1671</v>
+      </c>
+      <c r="H558" s="8">
+        <v>3607</v>
+      </c>
+      <c r="I558" s="8">
+        <v>2958</v>
       </c>
       <c r="J558" s="4">
         <v>502</v>
@@ -23247,8 +23263,8 @@
       <c r="L558" s="4">
         <v>177</v>
       </c>
-      <c r="M558" s="5">
-        <v>14.384</v>
+      <c r="M558" s="7">
+        <v>14384</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
@@ -23262,20 +23278,20 @@
       <c r="D559" s="4">
         <v>273</v>
       </c>
-      <c r="E559" s="4">
-        <v>4.2030000000000003</v>
-      </c>
-      <c r="F559" s="4">
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="G559" s="4">
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="H559" s="4">
-        <v>2.508</v>
-      </c>
-      <c r="I559" s="4">
-        <v>2.1190000000000002</v>
+      <c r="E559" s="8">
+        <v>4203</v>
+      </c>
+      <c r="F559" s="8">
+        <v>2598</v>
+      </c>
+      <c r="G559" s="8">
+        <v>1515</v>
+      </c>
+      <c r="H559" s="8">
+        <v>2508</v>
+      </c>
+      <c r="I559" s="8">
+        <v>2119</v>
       </c>
       <c r="J559" s="4">
         <v>306</v>
@@ -23286,8 +23302,8 @@
       <c r="L559" s="4">
         <v>149</v>
       </c>
-      <c r="M559" s="5">
-        <v>13.805999999999999</v>
+      <c r="M559" s="7">
+        <v>13806</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
@@ -23303,20 +23319,20 @@
       <c r="D560" s="4">
         <v>43</v>
       </c>
-      <c r="E560" s="4">
-        <v>2.657</v>
-      </c>
-      <c r="F560" s="4">
-        <v>2.44</v>
-      </c>
-      <c r="G560" s="4">
-        <v>2.0979999999999999</v>
-      </c>
-      <c r="H560" s="4">
-        <v>3.113</v>
-      </c>
-      <c r="I560" s="4">
-        <v>2.1760000000000002</v>
+      <c r="E560" s="8">
+        <v>2657</v>
+      </c>
+      <c r="F560" s="8">
+        <v>2440</v>
+      </c>
+      <c r="G560" s="8">
+        <v>2098</v>
+      </c>
+      <c r="H560" s="8">
+        <v>3113</v>
+      </c>
+      <c r="I560" s="8">
+        <v>2176</v>
       </c>
       <c r="J560" s="4">
         <v>424</v>
@@ -23327,8 +23343,8 @@
       <c r="L560" s="4">
         <v>159</v>
       </c>
-      <c r="M560" s="5">
-        <v>13.167</v>
+      <c r="M560" s="7">
+        <v>13167</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.25">
@@ -23342,20 +23358,20 @@
       <c r="D561" s="4">
         <v>205</v>
       </c>
-      <c r="E561" s="4">
-        <v>5.5170000000000003</v>
-      </c>
-      <c r="F561" s="4">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="G561" s="4">
-        <v>1.831</v>
-      </c>
-      <c r="H561" s="4">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="I561" s="4">
-        <v>1.3859999999999999</v>
+      <c r="E561" s="8">
+        <v>5517</v>
+      </c>
+      <c r="F561" s="8">
+        <v>1451</v>
+      </c>
+      <c r="G561" s="8">
+        <v>1831</v>
+      </c>
+      <c r="H561" s="8">
+        <v>2072</v>
+      </c>
+      <c r="I561" s="8">
+        <v>1386</v>
       </c>
       <c r="J561" s="4">
         <v>167</v>
@@ -23366,8 +23382,8 @@
       <c r="L561" s="4">
         <v>133</v>
       </c>
-      <c r="M561" s="5">
-        <v>12.888999999999999</v>
+      <c r="M561" s="7">
+        <v>12889</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.25">
@@ -23383,20 +23399,20 @@
       <c r="D562" s="4">
         <v>36</v>
       </c>
-      <c r="E562" s="4">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="F562" s="4">
-        <v>2.3109999999999999</v>
-      </c>
-      <c r="G562" s="4">
-        <v>1.5509999999999999</v>
-      </c>
-      <c r="H562" s="4">
-        <v>2.2069999999999999</v>
-      </c>
-      <c r="I562" s="4">
-        <v>1.653</v>
+      <c r="E562" s="8">
+        <v>2558</v>
+      </c>
+      <c r="F562" s="8">
+        <v>2311</v>
+      </c>
+      <c r="G562" s="8">
+        <v>1551</v>
+      </c>
+      <c r="H562" s="8">
+        <v>2207</v>
+      </c>
+      <c r="I562" s="8">
+        <v>1653</v>
       </c>
       <c r="J562" s="4">
         <v>269</v>
@@ -23407,8 +23423,8 @@
       <c r="L562" s="4">
         <v>109</v>
       </c>
-      <c r="M562" s="5">
-        <v>10.756</v>
+      <c r="M562" s="7">
+        <v>10756</v>
       </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.25">
@@ -23422,17 +23438,17 @@
       <c r="D563" s="4">
         <v>164</v>
       </c>
-      <c r="E563" s="4">
-        <v>5.07</v>
-      </c>
-      <c r="F563" s="4">
-        <v>1.514</v>
-      </c>
-      <c r="G563" s="4">
-        <v>1.506</v>
-      </c>
-      <c r="H563" s="4">
-        <v>1.3160000000000001</v>
+      <c r="E563" s="8">
+        <v>5070</v>
+      </c>
+      <c r="F563" s="8">
+        <v>1514</v>
+      </c>
+      <c r="G563" s="8">
+        <v>1506</v>
+      </c>
+      <c r="H563" s="8">
+        <v>1316</v>
       </c>
       <c r="I563" s="4">
         <v>779</v>
@@ -23446,8 +23462,8 @@
       <c r="L563" s="4">
         <v>119</v>
       </c>
-      <c r="M563" s="5">
-        <v>10.673999999999999</v>
+      <c r="M563" s="7">
+        <v>10674</v>
       </c>
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.25">
@@ -23463,20 +23479,20 @@
       <c r="D564" s="4">
         <v>31</v>
       </c>
-      <c r="E564" s="4">
-        <v>2.5459999999999998</v>
-      </c>
-      <c r="F564" s="4">
-        <v>2.2810000000000001</v>
-      </c>
-      <c r="G564" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="H564" s="4">
-        <v>1.484</v>
-      </c>
-      <c r="I564" s="4">
-        <v>1.2290000000000001</v>
+      <c r="E564" s="8">
+        <v>2546</v>
+      </c>
+      <c r="F564" s="8">
+        <v>2281</v>
+      </c>
+      <c r="G564" s="8">
+        <v>1389</v>
+      </c>
+      <c r="H564" s="8">
+        <v>1484</v>
+      </c>
+      <c r="I564" s="8">
+        <v>1229</v>
       </c>
       <c r="J564" s="4">
         <v>180</v>
@@ -23487,8 +23503,8 @@
       <c r="L564" s="4">
         <v>102</v>
       </c>
-      <c r="M564" s="5">
-        <v>9.2799999999999994</v>
+      <c r="M564" s="7">
+        <v>9280</v>
       </c>
     </row>
     <row r="565" spans="1:13" x14ac:dyDescent="0.25">
@@ -23502,14 +23518,14 @@
       <c r="D565" s="4">
         <v>237</v>
       </c>
-      <c r="E565" s="4">
-        <v>5.1479999999999997</v>
-      </c>
-      <c r="F565" s="4">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="G565" s="4">
-        <v>1.17</v>
+      <c r="E565" s="8">
+        <v>5148</v>
+      </c>
+      <c r="F565" s="8">
+        <v>1233</v>
+      </c>
+      <c r="G565" s="8">
+        <v>1170</v>
       </c>
       <c r="H565" s="4">
         <v>910</v>
@@ -23526,8 +23542,8 @@
       <c r="L565" s="4">
         <v>110</v>
       </c>
-      <c r="M565" s="5">
-        <v>9.3949999999999996</v>
+      <c r="M565" s="7">
+        <v>9395</v>
       </c>
     </row>
     <row r="566" spans="1:13" x14ac:dyDescent="0.25">
@@ -23543,17 +23559,17 @@
       <c r="D566" s="4">
         <v>47</v>
       </c>
-      <c r="E566" s="4">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="F566" s="4">
-        <v>1.734</v>
-      </c>
-      <c r="G566" s="4">
-        <v>1.169</v>
-      </c>
-      <c r="H566" s="4">
-        <v>1.0409999999999999</v>
+      <c r="E566" s="8">
+        <v>2833</v>
+      </c>
+      <c r="F566" s="8">
+        <v>1734</v>
+      </c>
+      <c r="G566" s="8">
+        <v>1169</v>
+      </c>
+      <c r="H566" s="8">
+        <v>1041</v>
       </c>
       <c r="I566" s="4">
         <v>822</v>
@@ -23567,8 +23583,8 @@
       <c r="L566" s="4">
         <v>105</v>
       </c>
-      <c r="M566" s="5">
-        <v>7.8940000000000001</v>
+      <c r="M566" s="7">
+        <v>7894</v>
       </c>
     </row>
     <row r="567" spans="1:13" x14ac:dyDescent="0.25">
@@ -23582,8 +23598,8 @@
       <c r="D567" s="4">
         <v>321</v>
       </c>
-      <c r="E567" s="4">
-        <v>5.0129999999999999</v>
+      <c r="E567" s="8">
+        <v>5013</v>
       </c>
       <c r="F567" s="4">
         <v>753</v>
@@ -23606,8 +23622,8 @@
       <c r="L567" s="4">
         <v>121</v>
       </c>
-      <c r="M567" s="5">
-        <v>7.9379999999999997</v>
+      <c r="M567" s="7">
+        <v>7938</v>
       </c>
     </row>
     <row r="568" spans="1:13" x14ac:dyDescent="0.25">
@@ -23623,8 +23639,8 @@
       <c r="D568" s="4">
         <v>58</v>
       </c>
-      <c r="E568" s="4">
-        <v>2.823</v>
+      <c r="E568" s="8">
+        <v>2823</v>
       </c>
       <c r="F568" s="4">
         <v>825</v>
@@ -23647,8 +23663,8 @@
       <c r="L568" s="4">
         <v>118</v>
       </c>
-      <c r="M568" s="5">
-        <v>6.07</v>
+      <c r="M568" s="7">
+        <v>6070</v>
       </c>
     </row>
     <row r="569" spans="1:13" x14ac:dyDescent="0.25">
@@ -23662,8 +23678,8 @@
       <c r="D569" s="4">
         <v>434</v>
       </c>
-      <c r="E569" s="4">
-        <v>4.5720000000000001</v>
+      <c r="E569" s="8">
+        <v>4572</v>
       </c>
       <c r="F569" s="4">
         <v>311</v>
@@ -23686,8 +23702,8 @@
       <c r="L569" s="4">
         <v>110</v>
       </c>
-      <c r="M569" s="5">
-        <v>6.5380000000000003</v>
+      <c r="M569" s="7">
+        <v>6538</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.25">
@@ -23703,8 +23719,8 @@
       <c r="D570" s="4">
         <v>91</v>
       </c>
-      <c r="E570" s="4">
-        <v>2.6110000000000002</v>
+      <c r="E570" s="8">
+        <v>2611</v>
       </c>
       <c r="F570" s="4">
         <v>332</v>
@@ -23727,8 +23743,8 @@
       <c r="L570" s="4">
         <v>93</v>
       </c>
-      <c r="M570" s="5">
-        <v>4.4630000000000001</v>
+      <c r="M570" s="7">
+        <v>4463</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.25">
@@ -23742,8 +23758,8 @@
       <c r="D571" s="4">
         <v>620</v>
       </c>
-      <c r="E571" s="4">
-        <v>3.3279999999999998</v>
+      <c r="E571" s="8">
+        <v>3328</v>
       </c>
       <c r="F571" s="4">
         <v>92</v>
@@ -23766,8 +23782,8 @@
       <c r="L571" s="4">
         <v>64</v>
       </c>
-      <c r="M571" s="5">
-        <v>4.9619999999999997</v>
+      <c r="M571" s="7">
+        <v>4962</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.25">
@@ -23783,8 +23799,8 @@
       <c r="D572" s="4">
         <v>83</v>
       </c>
-      <c r="E572" s="4">
-        <v>2.1509999999999998</v>
+      <c r="E572" s="8">
+        <v>2151</v>
       </c>
       <c r="F572" s="4">
         <v>109</v>
@@ -23807,8 +23823,8 @@
       <c r="L572" s="4">
         <v>64</v>
       </c>
-      <c r="M572" s="5">
-        <v>3.07</v>
+      <c r="M572" s="7">
+        <v>3070</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.25">
@@ -23822,8 +23838,8 @@
       <c r="D573" s="4">
         <v>747</v>
       </c>
-      <c r="E573" s="4">
-        <v>2.3889999999999998</v>
+      <c r="E573" s="8">
+        <v>2389</v>
       </c>
       <c r="F573" s="4">
         <v>29</v>
@@ -23846,8 +23862,8 @@
       <c r="L573" s="4">
         <v>64</v>
       </c>
-      <c r="M573" s="5">
-        <v>4.0049999999999999</v>
+      <c r="M573" s="7">
+        <v>4005</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
@@ -23863,8 +23879,8 @@
       <c r="D574" s="4">
         <v>317</v>
       </c>
-      <c r="E574" s="4">
-        <v>2.198</v>
+      <c r="E574" s="8">
+        <v>2198</v>
       </c>
       <c r="F574" s="4">
         <v>42</v>
@@ -23887,8 +23903,8 @@
       <c r="L574" s="4">
         <v>75</v>
       </c>
-      <c r="M574" s="5">
-        <v>3.2090000000000001</v>
+      <c r="M574" s="7">
+        <v>3209</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.25">
@@ -23896,14 +23912,14 @@
       <c r="B575" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C575" s="4">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="D575" s="4">
-        <v>1.268</v>
-      </c>
-      <c r="E575" s="4">
-        <v>2.1560000000000001</v>
+      <c r="C575" s="8">
+        <v>1398</v>
+      </c>
+      <c r="D575" s="8">
+        <v>1268</v>
+      </c>
+      <c r="E575" s="8">
+        <v>2156</v>
       </c>
       <c r="F575" s="4">
         <v>11</v>
@@ -23926,8 +23942,8 @@
       <c r="L575" s="4">
         <v>66</v>
       </c>
-      <c r="M575" s="5">
-        <v>4.9950000000000001</v>
+      <c r="M575" s="7">
+        <v>4995</v>
       </c>
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.25">
@@ -23935,45 +23951,45 @@
         <v>12</v>
       </c>
       <c r="B576" s="6"/>
-      <c r="C576" s="5">
-        <v>4.0220000000000002</v>
-      </c>
-      <c r="D576" s="5">
-        <v>6.3310000000000004</v>
-      </c>
-      <c r="E576" s="5">
-        <v>61.024999999999999</v>
-      </c>
-      <c r="F576" s="5">
-        <v>29.533000000000001</v>
-      </c>
-      <c r="G576" s="5">
-        <v>43.841000000000001</v>
-      </c>
-      <c r="H576" s="5">
-        <v>57.289000000000001</v>
-      </c>
-      <c r="I576" s="5">
-        <v>39.424999999999997</v>
-      </c>
-      <c r="J576" s="5">
-        <v>3.9830000000000001</v>
+      <c r="C576" s="7">
+        <v>4022</v>
+      </c>
+      <c r="D576" s="7">
+        <v>6331</v>
+      </c>
+      <c r="E576" s="7">
+        <v>61025</v>
+      </c>
+      <c r="F576" s="7">
+        <v>29533</v>
+      </c>
+      <c r="G576" s="7">
+        <v>43841</v>
+      </c>
+      <c r="H576" s="7">
+        <v>57289</v>
+      </c>
+      <c r="I576" s="7">
+        <v>39425</v>
+      </c>
+      <c r="J576" s="7">
+        <v>3983</v>
       </c>
       <c r="K576" s="5">
         <v>407</v>
       </c>
-      <c r="L576" s="5">
-        <v>3.09</v>
-      </c>
-      <c r="M576" s="5">
-        <v>248.946</v>
+      <c r="L576" s="7">
+        <v>3090</v>
+      </c>
+      <c r="M576" s="7">
+        <v>248946</v>
       </c>
     </row>
     <row r="577" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A577" s="8" t="s">
+      <c r="A577" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B577" s="8"/>
+      <c r="B577" s="11"/>
       <c r="C577" s="2" t="s">
         <v>2</v>
       </c>
@@ -24027,11 +24043,11 @@
       <c r="F578" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G578" s="4">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="H578" s="4">
-        <v>1.0089999999999999</v>
+      <c r="G578" s="8">
+        <v>1063</v>
+      </c>
+      <c r="H578" s="8">
+        <v>1009</v>
       </c>
       <c r="I578" s="4">
         <v>190</v>
@@ -24045,8 +24061,8 @@
       <c r="L578" s="4">
         <v>91</v>
       </c>
-      <c r="M578" s="5">
-        <v>2.5470000000000002</v>
+      <c r="M578" s="7">
+        <v>2547</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.25">
@@ -24069,8 +24085,8 @@
       <c r="G579" s="4">
         <v>808</v>
       </c>
-      <c r="H579" s="4">
-        <v>1.196</v>
+      <c r="H579" s="8">
+        <v>1196</v>
       </c>
       <c r="I579" s="4">
         <v>291</v>
@@ -24084,8 +24100,8 @@
       <c r="L579" s="4">
         <v>104</v>
       </c>
-      <c r="M579" s="5">
-        <v>2.645</v>
+      <c r="M579" s="7">
+        <v>2645</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.25">
@@ -24125,8 +24141,8 @@
       <c r="L580" s="4">
         <v>78</v>
       </c>
-      <c r="M580" s="5">
-        <v>1.895</v>
+      <c r="M580" s="7">
+        <v>1895</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.25">
@@ -24164,8 +24180,8 @@
       <c r="L581" s="4">
         <v>113</v>
       </c>
-      <c r="M581" s="5">
-        <v>1.954</v>
+      <c r="M581" s="7">
+        <v>1954</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.25">
@@ -24205,8 +24221,8 @@
       <c r="L582" s="4">
         <v>158</v>
       </c>
-      <c r="M582" s="5">
-        <v>1.645</v>
+      <c r="M582" s="7">
+        <v>1645</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.25">
@@ -24244,8 +24260,8 @@
       <c r="L583" s="4">
         <v>146</v>
       </c>
-      <c r="M583" s="5">
-        <v>1.57</v>
+      <c r="M583" s="7">
+        <v>1570</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.25">
@@ -24285,8 +24301,8 @@
       <c r="L584" s="4">
         <v>192</v>
       </c>
-      <c r="M584" s="5">
-        <v>1.6910000000000001</v>
+      <c r="M584" s="7">
+        <v>1691</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.25">
@@ -24324,8 +24340,8 @@
       <c r="L585" s="4">
         <v>166</v>
       </c>
-      <c r="M585" s="5">
-        <v>1.5880000000000001</v>
+      <c r="M585" s="7">
+        <v>1588</v>
       </c>
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.25">
@@ -24365,8 +24381,8 @@
       <c r="L586" s="4">
         <v>215</v>
       </c>
-      <c r="M586" s="5">
-        <v>1.6759999999999999</v>
+      <c r="M586" s="7">
+        <v>1676</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.25">
@@ -24404,8 +24420,8 @@
       <c r="L587" s="4">
         <v>179</v>
       </c>
-      <c r="M587" s="5">
-        <v>1.5940000000000001</v>
+      <c r="M587" s="7">
+        <v>1594</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.25">
@@ -24445,8 +24461,8 @@
       <c r="L588" s="4">
         <v>175</v>
       </c>
-      <c r="M588" s="5">
-        <v>1.4019999999999999</v>
+      <c r="M588" s="7">
+        <v>1402</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.25">
@@ -24484,8 +24500,8 @@
       <c r="L589" s="4">
         <v>166</v>
       </c>
-      <c r="M589" s="5">
-        <v>1.4390000000000001</v>
+      <c r="M589" s="7">
+        <v>1439</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.25">
@@ -24525,8 +24541,8 @@
       <c r="L590" s="4">
         <v>184</v>
       </c>
-      <c r="M590" s="5">
-        <v>1.41</v>
+      <c r="M590" s="7">
+        <v>1410</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.25">
@@ -24564,8 +24580,8 @@
       <c r="L591" s="4">
         <v>172</v>
       </c>
-      <c r="M591" s="5">
-        <v>1.4390000000000001</v>
+      <c r="M591" s="7">
+        <v>1439</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.25">
@@ -24605,8 +24621,8 @@
       <c r="L592" s="4">
         <v>231</v>
       </c>
-      <c r="M592" s="5">
-        <v>1.4279999999999999</v>
+      <c r="M592" s="7">
+        <v>1428</v>
       </c>
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.25">
@@ -24644,8 +24660,8 @@
       <c r="L593" s="4">
         <v>199</v>
       </c>
-      <c r="M593" s="5">
-        <v>1.538</v>
+      <c r="M593" s="7">
+        <v>1538</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.25">
@@ -24685,8 +24701,8 @@
       <c r="L594" s="4">
         <v>236</v>
       </c>
-      <c r="M594" s="5">
-        <v>1.419</v>
+      <c r="M594" s="7">
+        <v>1419</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.25">
@@ -24724,8 +24740,8 @@
       <c r="L595" s="4">
         <v>245</v>
       </c>
-      <c r="M595" s="5">
-        <v>1.536</v>
+      <c r="M595" s="7">
+        <v>1536</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.25">
@@ -24765,8 +24781,8 @@
       <c r="L596" s="4">
         <v>231</v>
       </c>
-      <c r="M596" s="5">
-        <v>1.242</v>
+      <c r="M596" s="7">
+        <v>1242</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.25">
@@ -24804,8 +24820,8 @@
       <c r="L597" s="4">
         <v>165</v>
       </c>
-      <c r="M597" s="5">
-        <v>1.4079999999999999</v>
+      <c r="M597" s="7">
+        <v>1408</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.25">
@@ -24884,8 +24900,8 @@
       <c r="L599" s="4">
         <v>114</v>
       </c>
-      <c r="M599" s="5">
-        <v>1.08</v>
+      <c r="M599" s="7">
+        <v>1080</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.25">
@@ -24964,8 +24980,8 @@
       <c r="L601" s="4">
         <v>108</v>
       </c>
-      <c r="M601" s="5">
-        <v>1.4179999999999999</v>
+      <c r="M601" s="7">
+        <v>1418</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.25">
@@ -24973,26 +24989,26 @@
         <v>12</v>
       </c>
       <c r="B602" s="6"/>
-      <c r="C602" s="5">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="D602" s="5">
-        <v>2.206</v>
-      </c>
-      <c r="E602" s="5">
-        <v>10.151999999999999</v>
-      </c>
-      <c r="F602" s="5">
-        <v>3.0569999999999999</v>
-      </c>
-      <c r="G602" s="5">
-        <v>6.3540000000000001</v>
-      </c>
-      <c r="H602" s="5">
-        <v>6.6059999999999999</v>
-      </c>
-      <c r="I602" s="5">
-        <v>3.2189999999999999</v>
+      <c r="C602" s="7">
+        <v>1438</v>
+      </c>
+      <c r="D602" s="7">
+        <v>2206</v>
+      </c>
+      <c r="E602" s="7">
+        <v>10152</v>
+      </c>
+      <c r="F602" s="7">
+        <v>3057</v>
+      </c>
+      <c r="G602" s="7">
+        <v>6354</v>
+      </c>
+      <c r="H602" s="7">
+        <v>6606</v>
+      </c>
+      <c r="I602" s="7">
+        <v>3219</v>
       </c>
       <c r="J602" s="5">
         <v>343</v>
@@ -25000,18 +25016,18 @@
       <c r="K602" s="5">
         <v>23</v>
       </c>
-      <c r="L602" s="5">
-        <v>3.8809999999999998</v>
-      </c>
-      <c r="M602" s="5">
-        <v>37.279000000000003</v>
+      <c r="L602" s="7">
+        <v>3881</v>
+      </c>
+      <c r="M602" s="7">
+        <v>37279</v>
       </c>
     </row>
     <row r="603" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A603" s="8" t="s">
+      <c r="A603" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B603" s="8"/>
+      <c r="B603" s="11"/>
       <c r="C603" s="2" t="s">
         <v>2</v>
       </c>
@@ -25065,14 +25081,14 @@
       <c r="F604" s="4">
         <v>2</v>
       </c>
-      <c r="G604" s="4">
-        <v>5.8120000000000003</v>
-      </c>
-      <c r="H604" s="4">
-        <v>10.627000000000001</v>
-      </c>
-      <c r="I604" s="4">
-        <v>2.0009999999999999</v>
+      <c r="G604" s="8">
+        <v>5812</v>
+      </c>
+      <c r="H604" s="8">
+        <v>10627</v>
+      </c>
+      <c r="I604" s="8">
+        <v>2001</v>
       </c>
       <c r="J604" s="4">
         <v>30</v>
@@ -25083,8 +25099,8 @@
       <c r="L604" s="4">
         <v>240</v>
       </c>
-      <c r="M604" s="5">
-        <v>18.878</v>
+      <c r="M604" s="7">
+        <v>18878</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.25">
@@ -25104,14 +25120,14 @@
       <c r="F605" s="4">
         <v>3</v>
       </c>
-      <c r="G605" s="4">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="H605" s="4">
-        <v>11.33</v>
-      </c>
-      <c r="I605" s="4">
-        <v>3.1960000000000002</v>
+      <c r="G605" s="8">
+        <v>4020</v>
+      </c>
+      <c r="H605" s="8">
+        <v>11330</v>
+      </c>
+      <c r="I605" s="8">
+        <v>3196</v>
       </c>
       <c r="J605" s="4">
         <v>57</v>
@@ -25122,8 +25138,8 @@
       <c r="L605" s="4">
         <v>121</v>
       </c>
-      <c r="M605" s="5">
-        <v>18.937999999999999</v>
+      <c r="M605" s="7">
+        <v>18938</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.25">
@@ -25145,14 +25161,14 @@
       <c r="F606" s="4">
         <v>50</v>
       </c>
-      <c r="G606" s="4">
-        <v>3.92</v>
-      </c>
-      <c r="H606" s="4">
-        <v>3.4780000000000002</v>
-      </c>
-      <c r="I606" s="4">
-        <v>4.0110000000000001</v>
+      <c r="G606" s="8">
+        <v>3920</v>
+      </c>
+      <c r="H606" s="8">
+        <v>3478</v>
+      </c>
+      <c r="I606" s="8">
+        <v>4011</v>
       </c>
       <c r="J606" s="4">
         <v>416</v>
@@ -25163,8 +25179,8 @@
       <c r="L606" s="4">
         <v>128</v>
       </c>
-      <c r="M606" s="5">
-        <v>12.093</v>
+      <c r="M606" s="7">
+        <v>12093</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.25">
@@ -25184,14 +25200,14 @@
       <c r="F607" s="4">
         <v>76</v>
       </c>
-      <c r="G607" s="4">
-        <v>3.4780000000000002</v>
-      </c>
-      <c r="H607" s="4">
-        <v>2.7410000000000001</v>
-      </c>
-      <c r="I607" s="4">
-        <v>4.92</v>
+      <c r="G607" s="8">
+        <v>3478</v>
+      </c>
+      <c r="H607" s="8">
+        <v>2741</v>
+      </c>
+      <c r="I607" s="8">
+        <v>4920</v>
       </c>
       <c r="J607" s="4">
         <v>639</v>
@@ -25202,8 +25218,8 @@
       <c r="L607" s="4">
         <v>158</v>
       </c>
-      <c r="M607" s="5">
-        <v>12.311999999999999</v>
+      <c r="M607" s="7">
+        <v>12312</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.25">
@@ -25222,17 +25238,17 @@
       <c r="E608" s="4">
         <v>68</v>
       </c>
-      <c r="F608" s="4">
-        <v>2.444</v>
-      </c>
-      <c r="G608" s="4">
-        <v>1.5029999999999999</v>
-      </c>
-      <c r="H608" s="4">
-        <v>2.81</v>
-      </c>
-      <c r="I608" s="4">
-        <v>3.2</v>
+      <c r="F608" s="8">
+        <v>2444</v>
+      </c>
+      <c r="G608" s="8">
+        <v>1503</v>
+      </c>
+      <c r="H608" s="8">
+        <v>2810</v>
+      </c>
+      <c r="I608" s="8">
+        <v>3200</v>
       </c>
       <c r="J608" s="4">
         <v>571</v>
@@ -25243,8 +25259,8 @@
       <c r="L608" s="4">
         <v>175</v>
       </c>
-      <c r="M608" s="5">
-        <v>10.943</v>
+      <c r="M608" s="7">
+        <v>10943</v>
       </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.25">
@@ -25261,17 +25277,17 @@
       <c r="E609" s="4">
         <v>148</v>
       </c>
-      <c r="F609" s="4">
-        <v>3.0430000000000001</v>
-      </c>
-      <c r="G609" s="4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="H609" s="4">
-        <v>2.302</v>
-      </c>
-      <c r="I609" s="4">
-        <v>3.4929999999999999</v>
+      <c r="F609" s="8">
+        <v>3043</v>
+      </c>
+      <c r="G609" s="8">
+        <v>1197</v>
+      </c>
+      <c r="H609" s="8">
+        <v>2302</v>
+      </c>
+      <c r="I609" s="8">
+        <v>3493</v>
       </c>
       <c r="J609" s="4">
         <v>722</v>
@@ -25282,8 +25298,8 @@
       <c r="L609" s="4">
         <v>174</v>
       </c>
-      <c r="M609" s="5">
-        <v>11.409000000000001</v>
+      <c r="M609" s="7">
+        <v>11409</v>
       </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.25">
@@ -25299,20 +25315,20 @@
       <c r="D610" s="4">
         <v>54</v>
       </c>
-      <c r="E610" s="4">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="F610" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G610" s="4">
-        <v>1.202</v>
-      </c>
-      <c r="H610" s="4">
-        <v>3.125</v>
-      </c>
-      <c r="I610" s="4">
-        <v>2.8439999999999999</v>
+      <c r="E610" s="8">
+        <v>1231</v>
+      </c>
+      <c r="F610" s="8">
+        <v>2550</v>
+      </c>
+      <c r="G610" s="8">
+        <v>1202</v>
+      </c>
+      <c r="H610" s="8">
+        <v>3125</v>
+      </c>
+      <c r="I610" s="8">
+        <v>2844</v>
       </c>
       <c r="J610" s="4">
         <v>717</v>
@@ -25323,8 +25339,8 @@
       <c r="L610" s="4">
         <v>168</v>
       </c>
-      <c r="M610" s="5">
-        <v>12.023999999999999</v>
+      <c r="M610" s="7">
+        <v>12024</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.25">
@@ -25338,20 +25354,20 @@
       <c r="D611" s="4">
         <v>120</v>
       </c>
-      <c r="E611" s="4">
-        <v>3.0920000000000001</v>
-      </c>
-      <c r="F611" s="4">
-        <v>2.0840000000000001</v>
-      </c>
-      <c r="G611" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="H611" s="4">
-        <v>2.423</v>
-      </c>
-      <c r="I611" s="4">
-        <v>2.5979999999999999</v>
+      <c r="E611" s="8">
+        <v>3092</v>
+      </c>
+      <c r="F611" s="8">
+        <v>2084</v>
+      </c>
+      <c r="G611" s="8">
+        <v>1180</v>
+      </c>
+      <c r="H611" s="8">
+        <v>2423</v>
+      </c>
+      <c r="I611" s="8">
+        <v>2598</v>
       </c>
       <c r="J611" s="4">
         <v>629</v>
@@ -25362,8 +25378,8 @@
       <c r="L611" s="4">
         <v>139</v>
       </c>
-      <c r="M611" s="5">
-        <v>12.420999999999999</v>
+      <c r="M611" s="7">
+        <v>12421</v>
       </c>
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.25">
@@ -25379,20 +25395,20 @@
       <c r="D612" s="4">
         <v>28</v>
       </c>
-      <c r="E612" s="4">
-        <v>1.845</v>
-      </c>
-      <c r="F612" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="G612" s="4">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="H612" s="4">
-        <v>3.1680000000000001</v>
-      </c>
-      <c r="I612" s="4">
-        <v>2.5710000000000002</v>
+      <c r="E612" s="8">
+        <v>1845</v>
+      </c>
+      <c r="F612" s="8">
+        <v>1900</v>
+      </c>
+      <c r="G612" s="8">
+        <v>1731</v>
+      </c>
+      <c r="H612" s="8">
+        <v>3168</v>
+      </c>
+      <c r="I612" s="8">
+        <v>2571</v>
       </c>
       <c r="J612" s="4">
         <v>738</v>
@@ -25403,8 +25419,8 @@
       <c r="L612" s="4">
         <v>125</v>
       </c>
-      <c r="M612" s="5">
-        <v>12.295</v>
+      <c r="M612" s="7">
+        <v>12295</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.25">
@@ -25418,20 +25434,20 @@
       <c r="D613" s="4">
         <v>97</v>
       </c>
-      <c r="E613" s="4">
-        <v>4.5670000000000002</v>
-      </c>
-      <c r="F613" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G613" s="4">
-        <v>1.3640000000000001</v>
-      </c>
-      <c r="H613" s="4">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="I613" s="4">
-        <v>2.1880000000000002</v>
+      <c r="E613" s="8">
+        <v>4567</v>
+      </c>
+      <c r="F613" s="8">
+        <v>1130</v>
+      </c>
+      <c r="G613" s="8">
+        <v>1364</v>
+      </c>
+      <c r="H613" s="8">
+        <v>2271</v>
+      </c>
+      <c r="I613" s="8">
+        <v>2188</v>
       </c>
       <c r="J613" s="4">
         <v>568</v>
@@ -25442,8 +25458,8 @@
       <c r="L613" s="4">
         <v>109</v>
       </c>
-      <c r="M613" s="5">
-        <v>12.478</v>
+      <c r="M613" s="7">
+        <v>12478</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.25">
@@ -25459,20 +25475,20 @@
       <c r="D614" s="4">
         <v>14</v>
       </c>
-      <c r="E614" s="4">
-        <v>1.994</v>
-      </c>
-      <c r="F614" s="4">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="G614" s="4">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="H614" s="4">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="I614" s="4">
-        <v>2.2639999999999998</v>
+      <c r="E614" s="8">
+        <v>1994</v>
+      </c>
+      <c r="F614" s="8">
+        <v>1908</v>
+      </c>
+      <c r="G614" s="8">
+        <v>1422</v>
+      </c>
+      <c r="H614" s="8">
+        <v>2393</v>
+      </c>
+      <c r="I614" s="8">
+        <v>2264</v>
       </c>
       <c r="J614" s="4">
         <v>534</v>
@@ -25483,8 +25499,8 @@
       <c r="L614" s="4">
         <v>101</v>
       </c>
-      <c r="M614" s="5">
-        <v>10.847</v>
+      <c r="M614" s="7">
+        <v>10847</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.25">
@@ -25498,20 +25514,20 @@
       <c r="D615" s="4">
         <v>81</v>
       </c>
-      <c r="E615" s="4">
-        <v>4.5960000000000001</v>
-      </c>
-      <c r="F615" s="4">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="G615" s="4">
-        <v>1.208</v>
-      </c>
-      <c r="H615" s="4">
-        <v>1.716</v>
-      </c>
-      <c r="I615" s="4">
-        <v>1.6779999999999999</v>
+      <c r="E615" s="8">
+        <v>4596</v>
+      </c>
+      <c r="F615" s="8">
+        <v>1241</v>
+      </c>
+      <c r="G615" s="8">
+        <v>1208</v>
+      </c>
+      <c r="H615" s="8">
+        <v>1716</v>
+      </c>
+      <c r="I615" s="8">
+        <v>1678</v>
       </c>
       <c r="J615" s="4">
         <v>358</v>
@@ -25522,8 +25538,8 @@
       <c r="L615" s="4">
         <v>112</v>
       </c>
-      <c r="M615" s="5">
-        <v>11.162000000000001</v>
+      <c r="M615" s="7">
+        <v>11162</v>
       </c>
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.25">
@@ -25539,20 +25555,20 @@
       <c r="D616" s="4">
         <v>17</v>
       </c>
-      <c r="E616" s="4">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="F616" s="4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="G616" s="4">
-        <v>1.367</v>
-      </c>
-      <c r="H616" s="4">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="I616" s="4">
-        <v>1.871</v>
+      <c r="E616" s="8">
+        <v>2094</v>
+      </c>
+      <c r="F616" s="8">
+        <v>1844</v>
+      </c>
+      <c r="G616" s="8">
+        <v>1367</v>
+      </c>
+      <c r="H616" s="8">
+        <v>1765</v>
+      </c>
+      <c r="I616" s="8">
+        <v>1871</v>
       </c>
       <c r="J616" s="4">
         <v>431</v>
@@ -25563,8 +25579,8 @@
       <c r="L616" s="4">
         <v>97</v>
       </c>
-      <c r="M616" s="5">
-        <v>9.6980000000000004</v>
+      <c r="M616" s="7">
+        <v>9698</v>
       </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.25">
@@ -25578,20 +25594,20 @@
       <c r="D617" s="4">
         <v>141</v>
       </c>
-      <c r="E617" s="4">
-        <v>4.7729999999999997</v>
-      </c>
-      <c r="F617" s="4">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="G617" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H617" s="4">
-        <v>1.298</v>
-      </c>
-      <c r="I617" s="4">
-        <v>1.093</v>
+      <c r="E617" s="8">
+        <v>4773</v>
+      </c>
+      <c r="F617" s="8">
+        <v>1144</v>
+      </c>
+      <c r="G617" s="8">
+        <v>1059</v>
+      </c>
+      <c r="H617" s="8">
+        <v>1298</v>
+      </c>
+      <c r="I617" s="8">
+        <v>1093</v>
       </c>
       <c r="J617" s="4">
         <v>177</v>
@@ -25602,8 +25618,8 @@
       <c r="L617" s="4">
         <v>112</v>
       </c>
-      <c r="M617" s="5">
-        <v>10.000999999999999</v>
+      <c r="M617" s="7">
+        <v>10001</v>
       </c>
     </row>
     <row r="618" spans="1:13" x14ac:dyDescent="0.25">
@@ -25619,20 +25635,20 @@
       <c r="D618" s="4">
         <v>23</v>
       </c>
-      <c r="E618" s="4">
-        <v>2.484</v>
-      </c>
-      <c r="F618" s="4">
-        <v>1.472</v>
-      </c>
-      <c r="G618" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="H618" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="I618" s="4">
-        <v>1.4039999999999999</v>
+      <c r="E618" s="8">
+        <v>2484</v>
+      </c>
+      <c r="F618" s="8">
+        <v>1472</v>
+      </c>
+      <c r="G618" s="8">
+        <v>1107</v>
+      </c>
+      <c r="H618" s="8">
+        <v>1343</v>
+      </c>
+      <c r="I618" s="8">
+        <v>1404</v>
       </c>
       <c r="J618" s="4">
         <v>256</v>
@@ -25643,8 +25659,8 @@
       <c r="L618" s="4">
         <v>132</v>
       </c>
-      <c r="M618" s="5">
-        <v>8.4580000000000002</v>
+      <c r="M618" s="7">
+        <v>8458</v>
       </c>
     </row>
     <row r="619" spans="1:13" x14ac:dyDescent="0.25">
@@ -25658,8 +25674,8 @@
       <c r="D619" s="4">
         <v>233</v>
       </c>
-      <c r="E619" s="4">
-        <v>4.9080000000000004</v>
+      <c r="E619" s="8">
+        <v>4908</v>
       </c>
       <c r="F619" s="4">
         <v>693</v>
@@ -25682,8 +25698,8 @@
       <c r="L619" s="4">
         <v>137</v>
       </c>
-      <c r="M619" s="5">
-        <v>8.7279999999999998</v>
+      <c r="M619" s="7">
+        <v>8728</v>
       </c>
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.25">
@@ -25699,8 +25715,8 @@
       <c r="D620" s="4">
         <v>38</v>
       </c>
-      <c r="E620" s="4">
-        <v>2.899</v>
+      <c r="E620" s="8">
+        <v>2899</v>
       </c>
       <c r="F620" s="4">
         <v>774</v>
@@ -25708,11 +25724,11 @@
       <c r="G620" s="4">
         <v>821</v>
       </c>
-      <c r="H620" s="4">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="I620" s="4">
-        <v>1.0720000000000001</v>
+      <c r="H620" s="8">
+        <v>1297</v>
+      </c>
+      <c r="I620" s="8">
+        <v>1072</v>
       </c>
       <c r="J620" s="4">
         <v>128</v>
@@ -25723,8 +25739,8 @@
       <c r="L620" s="4">
         <v>101</v>
       </c>
-      <c r="M620" s="5">
-        <v>7.2670000000000003</v>
+      <c r="M620" s="7">
+        <v>7267</v>
       </c>
     </row>
     <row r="621" spans="1:13" x14ac:dyDescent="0.25">
@@ -25738,8 +25754,8 @@
       <c r="D621" s="4">
         <v>350</v>
       </c>
-      <c r="E621" s="4">
-        <v>5.0209999999999999</v>
+      <c r="E621" s="8">
+        <v>5021</v>
       </c>
       <c r="F621" s="4">
         <v>335</v>
@@ -25762,8 +25778,8 @@
       <c r="L621" s="4">
         <v>125</v>
       </c>
-      <c r="M621" s="5">
-        <v>7.76</v>
+      <c r="M621" s="7">
+        <v>7760</v>
       </c>
     </row>
     <row r="622" spans="1:13" x14ac:dyDescent="0.25">
@@ -25779,8 +25795,8 @@
       <c r="D622" s="4">
         <v>56</v>
       </c>
-      <c r="E622" s="4">
-        <v>2.7240000000000002</v>
+      <c r="E622" s="8">
+        <v>2724</v>
       </c>
       <c r="F622" s="4">
         <v>328</v>
@@ -25803,8 +25819,8 @@
       <c r="L622" s="4">
         <v>111</v>
       </c>
-      <c r="M622" s="5">
-        <v>5.6390000000000002</v>
+      <c r="M622" s="7">
+        <v>5639</v>
       </c>
     </row>
     <row r="623" spans="1:13" x14ac:dyDescent="0.25">
@@ -25818,8 +25834,8 @@
       <c r="D623" s="4">
         <v>523</v>
       </c>
-      <c r="E623" s="4">
-        <v>4.1130000000000004</v>
+      <c r="E623" s="8">
+        <v>4113</v>
       </c>
       <c r="F623" s="4">
         <v>140</v>
@@ -25842,8 +25858,8 @@
       <c r="L623" s="4">
         <v>108</v>
       </c>
-      <c r="M623" s="5">
-        <v>6.3250000000000002</v>
+      <c r="M623" s="7">
+        <v>6325</v>
       </c>
     </row>
     <row r="624" spans="1:13" x14ac:dyDescent="0.25">
@@ -25859,8 +25875,8 @@
       <c r="D624" s="4">
         <v>60</v>
       </c>
-      <c r="E624" s="4">
-        <v>2.3170000000000002</v>
+      <c r="E624" s="8">
+        <v>2317</v>
       </c>
       <c r="F624" s="4">
         <v>118</v>
@@ -25883,8 +25899,8 @@
       <c r="L624" s="4">
         <v>96</v>
       </c>
-      <c r="M624" s="5">
-        <v>4.1310000000000002</v>
+      <c r="M624" s="7">
+        <v>4131</v>
       </c>
     </row>
     <row r="625" spans="1:13" x14ac:dyDescent="0.25">
@@ -25898,8 +25914,8 @@
       <c r="D625" s="4">
         <v>681</v>
       </c>
-      <c r="E625" s="4">
-        <v>3.0409999999999999</v>
+      <c r="E625" s="8">
+        <v>3041</v>
       </c>
       <c r="F625" s="4">
         <v>32</v>
@@ -25922,8 +25938,8 @@
       <c r="L625" s="4">
         <v>92</v>
       </c>
-      <c r="M625" s="5">
-        <v>5.0069999999999997</v>
+      <c r="M625" s="7">
+        <v>5007</v>
       </c>
     </row>
     <row r="626" spans="1:13" x14ac:dyDescent="0.25">
@@ -25939,8 +25955,8 @@
       <c r="D626" s="4">
         <v>316</v>
       </c>
-      <c r="E626" s="4">
-        <v>3.1429999999999998</v>
+      <c r="E626" s="8">
+        <v>3143</v>
       </c>
       <c r="F626" s="4">
         <v>40</v>
@@ -25963,8 +25979,8 @@
       <c r="L626" s="4">
         <v>99</v>
       </c>
-      <c r="M626" s="5">
-        <v>5.0940000000000003</v>
+      <c r="M626" s="7">
+        <v>5094</v>
       </c>
     </row>
     <row r="627" spans="1:13" x14ac:dyDescent="0.25">
@@ -25972,14 +25988,14 @@
       <c r="B627" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C627" s="4">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="D627" s="4">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="E627" s="4">
-        <v>3.375</v>
+      <c r="C627" s="8">
+        <v>1388</v>
+      </c>
+      <c r="D627" s="8">
+        <v>1564</v>
+      </c>
+      <c r="E627" s="8">
+        <v>3375</v>
       </c>
       <c r="F627" s="4">
         <v>15</v>
@@ -26002,8 +26018,8 @@
       <c r="L627" s="4">
         <v>58</v>
       </c>
-      <c r="M627" s="5">
-        <v>6.88</v>
+      <c r="M627" s="7">
+        <v>6880</v>
       </c>
     </row>
     <row r="628" spans="1:13" x14ac:dyDescent="0.25">
@@ -26011,45 +26027,45 @@
         <v>12</v>
       </c>
       <c r="B628" s="6"/>
-      <c r="C628" s="5">
-        <v>3.294</v>
-      </c>
-      <c r="D628" s="5">
-        <v>5.056</v>
-      </c>
-      <c r="E628" s="5">
-        <v>58.884999999999998</v>
-      </c>
-      <c r="F628" s="5">
-        <v>23.366</v>
-      </c>
-      <c r="G628" s="5">
-        <v>35.286999999999999</v>
-      </c>
-      <c r="H628" s="5">
-        <v>58.383000000000003</v>
-      </c>
-      <c r="I628" s="5">
-        <v>44.276000000000003</v>
-      </c>
-      <c r="J628" s="5">
-        <v>7.3090000000000002</v>
-      </c>
-      <c r="K628" s="5">
-        <v>1.9139999999999999</v>
-      </c>
-      <c r="L628" s="5">
-        <v>3.0179999999999998</v>
-      </c>
-      <c r="M628" s="5">
-        <v>240.78800000000001</v>
+      <c r="C628" s="7">
+        <v>3294</v>
+      </c>
+      <c r="D628" s="7">
+        <v>5056</v>
+      </c>
+      <c r="E628" s="7">
+        <v>58885</v>
+      </c>
+      <c r="F628" s="7">
+        <v>23366</v>
+      </c>
+      <c r="G628" s="7">
+        <v>35287</v>
+      </c>
+      <c r="H628" s="7">
+        <v>58383</v>
+      </c>
+      <c r="I628" s="7">
+        <v>44276</v>
+      </c>
+      <c r="J628" s="7">
+        <v>7309</v>
+      </c>
+      <c r="K628" s="7">
+        <v>1914</v>
+      </c>
+      <c r="L628" s="7">
+        <v>3018</v>
+      </c>
+      <c r="M628" s="7">
+        <v>240788</v>
       </c>
     </row>
     <row r="629" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A629" s="8" t="s">
+      <c r="A629" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B629" s="8"/>
+      <c r="B629" s="11"/>
       <c r="C629" s="2" t="s">
         <v>2</v>
       </c>
@@ -26121,8 +26137,8 @@
       <c r="L630" s="4">
         <v>22</v>
       </c>
-      <c r="M630" s="5">
-        <v>1.5129999999999999</v>
+      <c r="M630" s="7">
+        <v>1513</v>
       </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.25">
@@ -26160,8 +26176,8 @@
       <c r="L631" s="4">
         <v>10</v>
       </c>
-      <c r="M631" s="5">
-        <v>1.554</v>
+      <c r="M631" s="7">
+        <v>1554</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.25">
@@ -26361,8 +26377,8 @@
       <c r="L636" s="4">
         <v>9</v>
       </c>
-      <c r="M636" s="5">
-        <v>1.01</v>
+      <c r="M636" s="7">
+        <v>1010</v>
       </c>
     </row>
     <row r="637" spans="1:13" x14ac:dyDescent="0.25">
@@ -27055,20 +27071,20 @@
       <c r="D654" s="5">
         <v>597</v>
       </c>
-      <c r="E654" s="5">
-        <v>6.2089999999999996</v>
-      </c>
-      <c r="F654" s="5">
-        <v>2.363</v>
-      </c>
-      <c r="G654" s="5">
-        <v>3.4729999999999999</v>
-      </c>
-      <c r="H654" s="5">
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="I654" s="5">
-        <v>2.254</v>
+      <c r="E654" s="7">
+        <v>6209</v>
+      </c>
+      <c r="F654" s="7">
+        <v>2363</v>
+      </c>
+      <c r="G654" s="7">
+        <v>3473</v>
+      </c>
+      <c r="H654" s="7">
+        <v>5175</v>
+      </c>
+      <c r="I654" s="7">
+        <v>2254</v>
       </c>
       <c r="J654" s="5">
         <v>178</v>
@@ -27079,15 +27095,15 @@
       <c r="L654" s="5">
         <v>169</v>
       </c>
-      <c r="M654" s="5">
-        <v>20.777000000000001</v>
+      <c r="M654" s="7">
+        <v>20777</v>
       </c>
     </row>
     <row r="655" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A655" s="8" t="s">
+      <c r="A655" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B655" s="8"/>
+      <c r="B655" s="11"/>
       <c r="C655" s="2" t="s">
         <v>2</v>
       </c>
@@ -27141,14 +27157,14 @@
       <c r="F656" s="4">
         <v>5</v>
       </c>
-      <c r="G656" s="4">
-        <v>8.5939999999999994</v>
-      </c>
-      <c r="H656" s="4">
-        <v>23.07</v>
-      </c>
-      <c r="I656" s="4">
-        <v>4.6989999999999998</v>
+      <c r="G656" s="8">
+        <v>8594</v>
+      </c>
+      <c r="H656" s="8">
+        <v>23070</v>
+      </c>
+      <c r="I656" s="8">
+        <v>4699</v>
       </c>
       <c r="J656" s="4">
         <v>53</v>
@@ -27159,8 +27175,8 @@
       <c r="L656" s="4">
         <v>437</v>
       </c>
-      <c r="M656" s="5">
-        <v>37.008000000000003</v>
+      <c r="M656" s="7">
+        <v>37008</v>
       </c>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.25">
@@ -27180,14 +27196,14 @@
       <c r="F657" s="4">
         <v>4</v>
       </c>
-      <c r="G657" s="4">
-        <v>5.93</v>
-      </c>
-      <c r="H657" s="4">
-        <v>23.548999999999999</v>
-      </c>
-      <c r="I657" s="4">
-        <v>7.2690000000000001</v>
+      <c r="G657" s="8">
+        <v>5930</v>
+      </c>
+      <c r="H657" s="8">
+        <v>23549</v>
+      </c>
+      <c r="I657" s="8">
+        <v>7269</v>
       </c>
       <c r="J657" s="4">
         <v>105</v>
@@ -27198,8 +27214,8 @@
       <c r="L657" s="4">
         <v>233</v>
       </c>
-      <c r="M657" s="5">
-        <v>37.26</v>
+      <c r="M657" s="7">
+        <v>37260</v>
       </c>
     </row>
     <row r="658" spans="1:13" x14ac:dyDescent="0.25">
@@ -27221,17 +27237,17 @@
       <c r="F658" s="4">
         <v>71</v>
       </c>
-      <c r="G658" s="4">
-        <v>6.0019999999999998</v>
-      </c>
-      <c r="H658" s="4">
-        <v>7.6449999999999996</v>
-      </c>
-      <c r="I658" s="4">
-        <v>10.657999999999999</v>
-      </c>
-      <c r="J658" s="4">
-        <v>1.123</v>
+      <c r="G658" s="8">
+        <v>6002</v>
+      </c>
+      <c r="H658" s="8">
+        <v>7645</v>
+      </c>
+      <c r="I658" s="8">
+        <v>10658</v>
+      </c>
+      <c r="J658" s="8">
+        <v>1123</v>
       </c>
       <c r="K658" s="4">
         <v>8</v>
@@ -27239,8 +27255,8 @@
       <c r="L658" s="4">
         <v>281</v>
       </c>
-      <c r="M658" s="5">
-        <v>25.914000000000001</v>
+      <c r="M658" s="7">
+        <v>25914</v>
       </c>
     </row>
     <row r="659" spans="1:13" x14ac:dyDescent="0.25">
@@ -27260,17 +27276,17 @@
       <c r="F659" s="4">
         <v>138</v>
       </c>
-      <c r="G659" s="4">
-        <v>5.2949999999999999</v>
-      </c>
-      <c r="H659" s="4">
-        <v>6.2240000000000002</v>
-      </c>
-      <c r="I659" s="4">
-        <v>12.75</v>
-      </c>
-      <c r="J659" s="4">
-        <v>1.643</v>
+      <c r="G659" s="8">
+        <v>5295</v>
+      </c>
+      <c r="H659" s="8">
+        <v>6224</v>
+      </c>
+      <c r="I659" s="8">
+        <v>12750</v>
+      </c>
+      <c r="J659" s="8">
+        <v>1643</v>
       </c>
       <c r="K659" s="4">
         <v>4</v>
@@ -27278,8 +27294,8 @@
       <c r="L659" s="4">
         <v>310</v>
       </c>
-      <c r="M659" s="5">
-        <v>26.747</v>
+      <c r="M659" s="7">
+        <v>26747</v>
       </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.25">
@@ -27298,20 +27314,20 @@
       <c r="E660" s="4">
         <v>108</v>
       </c>
-      <c r="F660" s="4">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="G660" s="4">
-        <v>2.5329999999999999</v>
-      </c>
-      <c r="H660" s="4">
-        <v>6.2960000000000003</v>
-      </c>
-      <c r="I660" s="4">
-        <v>9.0210000000000008</v>
-      </c>
-      <c r="J660" s="4">
-        <v>1.6830000000000001</v>
+      <c r="F660" s="8">
+        <v>3438</v>
+      </c>
+      <c r="G660" s="8">
+        <v>2533</v>
+      </c>
+      <c r="H660" s="8">
+        <v>6296</v>
+      </c>
+      <c r="I660" s="8">
+        <v>9021</v>
+      </c>
+      <c r="J660" s="8">
+        <v>1683</v>
       </c>
       <c r="K660" s="4">
         <v>126</v>
@@ -27319,8 +27335,8 @@
       <c r="L660" s="4">
         <v>304</v>
       </c>
-      <c r="M660" s="5">
-        <v>23.713999999999999</v>
+      <c r="M660" s="7">
+        <v>23714</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.25">
@@ -27337,20 +27353,20 @@
       <c r="E661" s="4">
         <v>227</v>
       </c>
-      <c r="F661" s="4">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="G661" s="4">
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="H661" s="4">
-        <v>5.6340000000000003</v>
-      </c>
-      <c r="I661" s="4">
-        <v>9.8819999999999997</v>
-      </c>
-      <c r="J661" s="4">
-        <v>1.8180000000000001</v>
+      <c r="F661" s="8">
+        <v>4610</v>
+      </c>
+      <c r="G661" s="8">
+        <v>2135</v>
+      </c>
+      <c r="H661" s="8">
+        <v>5634</v>
+      </c>
+      <c r="I661" s="8">
+        <v>9882</v>
+      </c>
+      <c r="J661" s="8">
+        <v>1818</v>
       </c>
       <c r="K661" s="4">
         <v>118</v>
@@ -27358,8 +27374,8 @@
       <c r="L661" s="4">
         <v>322</v>
       </c>
-      <c r="M661" s="5">
-        <v>25.14</v>
+      <c r="M661" s="7">
+        <v>25140</v>
       </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.25">
@@ -27375,23 +27391,23 @@
       <c r="D662" s="4">
         <v>80</v>
       </c>
-      <c r="E662" s="4">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="F662" s="4">
-        <v>3.9020000000000001</v>
-      </c>
-      <c r="G662" s="4">
-        <v>2.2109999999999999</v>
-      </c>
-      <c r="H662" s="4">
-        <v>7.375</v>
-      </c>
-      <c r="I662" s="4">
-        <v>8.2509999999999994</v>
-      </c>
-      <c r="J662" s="4">
-        <v>1.776</v>
+      <c r="E662" s="8">
+        <v>1628</v>
+      </c>
+      <c r="F662" s="8">
+        <v>3902</v>
+      </c>
+      <c r="G662" s="8">
+        <v>2211</v>
+      </c>
+      <c r="H662" s="8">
+        <v>7375</v>
+      </c>
+      <c r="I662" s="8">
+        <v>8251</v>
+      </c>
+      <c r="J662" s="8">
+        <v>1776</v>
       </c>
       <c r="K662" s="4">
         <v>317</v>
@@ -27399,8 +27415,8 @@
       <c r="L662" s="4">
         <v>313</v>
       </c>
-      <c r="M662" s="5">
-        <v>25.876999999999999</v>
+      <c r="M662" s="7">
+        <v>25877</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.25">
@@ -27414,23 +27430,23 @@
       <c r="D663" s="4">
         <v>173</v>
       </c>
-      <c r="E663" s="4">
-        <v>5.1269999999999998</v>
-      </c>
-      <c r="F663" s="4">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="G663" s="4">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H663" s="4">
-        <v>6.3879999999999999</v>
-      </c>
-      <c r="I663" s="4">
-        <v>7.41</v>
-      </c>
-      <c r="J663" s="4">
-        <v>1.587</v>
+      <c r="E663" s="8">
+        <v>5127</v>
+      </c>
+      <c r="F663" s="8">
+        <v>3664</v>
+      </c>
+      <c r="G663" s="8">
+        <v>2530</v>
+      </c>
+      <c r="H663" s="8">
+        <v>6388</v>
+      </c>
+      <c r="I663" s="8">
+        <v>7410</v>
+      </c>
+      <c r="J663" s="8">
+        <v>1587</v>
       </c>
       <c r="K663" s="4">
         <v>268</v>
@@ -27438,8 +27454,8 @@
       <c r="L663" s="4">
         <v>332</v>
       </c>
-      <c r="M663" s="5">
-        <v>27.547999999999998</v>
+      <c r="M663" s="7">
+        <v>27548</v>
       </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.25">
@@ -27455,23 +27471,23 @@
       <c r="D664" s="4">
         <v>40</v>
       </c>
-      <c r="E664" s="4">
-        <v>2.66</v>
-      </c>
-      <c r="F664" s="4">
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="G664" s="4">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="H664" s="4">
-        <v>7.7229999999999999</v>
-      </c>
-      <c r="I664" s="4">
-        <v>7.0519999999999996</v>
-      </c>
-      <c r="J664" s="4">
-        <v>1.853</v>
+      <c r="E664" s="8">
+        <v>2660</v>
+      </c>
+      <c r="F664" s="8">
+        <v>2999</v>
+      </c>
+      <c r="G664" s="8">
+        <v>3325</v>
+      </c>
+      <c r="H664" s="8">
+        <v>7723</v>
+      </c>
+      <c r="I664" s="8">
+        <v>7052</v>
+      </c>
+      <c r="J664" s="8">
+        <v>1853</v>
       </c>
       <c r="K664" s="4">
         <v>443</v>
@@ -27479,8 +27495,8 @@
       <c r="L664" s="4">
         <v>275</v>
       </c>
-      <c r="M664" s="5">
-        <v>26.385999999999999</v>
+      <c r="M664" s="7">
+        <v>26386</v>
       </c>
     </row>
     <row r="665" spans="1:13" x14ac:dyDescent="0.25">
@@ -27494,23 +27510,23 @@
       <c r="D665" s="4">
         <v>158</v>
       </c>
-      <c r="E665" s="4">
-        <v>7.3129999999999997</v>
-      </c>
-      <c r="F665" s="4">
-        <v>2.5510000000000002</v>
-      </c>
-      <c r="G665" s="4">
-        <v>3.282</v>
-      </c>
-      <c r="H665" s="4">
-        <v>6.0419999999999998</v>
-      </c>
-      <c r="I665" s="4">
-        <v>5.9649999999999999</v>
-      </c>
-      <c r="J665" s="4">
-        <v>1.36</v>
+      <c r="E665" s="8">
+        <v>7313</v>
+      </c>
+      <c r="F665" s="8">
+        <v>2551</v>
+      </c>
+      <c r="G665" s="8">
+        <v>3282</v>
+      </c>
+      <c r="H665" s="8">
+        <v>6042</v>
+      </c>
+      <c r="I665" s="8">
+        <v>5965</v>
+      </c>
+      <c r="J665" s="8">
+        <v>1360</v>
       </c>
       <c r="K665" s="4">
         <v>340</v>
@@ -27518,8 +27534,8 @@
       <c r="L665" s="4">
         <v>274</v>
       </c>
-      <c r="M665" s="5">
-        <v>27.356000000000002</v>
+      <c r="M665" s="7">
+        <v>27356</v>
       </c>
     </row>
     <row r="666" spans="1:13" x14ac:dyDescent="0.25">
@@ -27535,23 +27551,23 @@
       <c r="D666" s="4">
         <v>24</v>
       </c>
-      <c r="E666" s="4">
-        <v>2.802</v>
-      </c>
-      <c r="F666" s="4">
-        <v>3.2309999999999999</v>
-      </c>
-      <c r="G666" s="4">
-        <v>2.5510000000000002</v>
-      </c>
-      <c r="H666" s="4">
-        <v>5.6059999999999999</v>
-      </c>
-      <c r="I666" s="4">
-        <v>5.88</v>
-      </c>
-      <c r="J666" s="4">
-        <v>1.194</v>
+      <c r="E666" s="8">
+        <v>2802</v>
+      </c>
+      <c r="F666" s="8">
+        <v>3231</v>
+      </c>
+      <c r="G666" s="8">
+        <v>2551</v>
+      </c>
+      <c r="H666" s="8">
+        <v>5606</v>
+      </c>
+      <c r="I666" s="8">
+        <v>5880</v>
+      </c>
+      <c r="J666" s="8">
+        <v>1194</v>
       </c>
       <c r="K666" s="4">
         <v>489</v>
@@ -27559,8 +27575,8 @@
       <c r="L666" s="4">
         <v>241</v>
       </c>
-      <c r="M666" s="5">
-        <v>22.027999999999999</v>
+      <c r="M666" s="7">
+        <v>22028</v>
       </c>
     </row>
     <row r="667" spans="1:13" x14ac:dyDescent="0.25">
@@ -27574,20 +27590,20 @@
       <c r="D667" s="4">
         <v>187</v>
       </c>
-      <c r="E667" s="4">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="F667" s="4">
-        <v>2.944</v>
-      </c>
-      <c r="G667" s="4">
-        <v>2.9649999999999999</v>
-      </c>
-      <c r="H667" s="4">
-        <v>4.22</v>
-      </c>
-      <c r="I667" s="4">
-        <v>3.9009999999999998</v>
+      <c r="E667" s="8">
+        <v>7404</v>
+      </c>
+      <c r="F667" s="8">
+        <v>2944</v>
+      </c>
+      <c r="G667" s="8">
+        <v>2965</v>
+      </c>
+      <c r="H667" s="8">
+        <v>4220</v>
+      </c>
+      <c r="I667" s="8">
+        <v>3901</v>
       </c>
       <c r="J667" s="4">
         <v>632</v>
@@ -27598,8 +27614,8 @@
       <c r="L667" s="4">
         <v>241</v>
       </c>
-      <c r="M667" s="5">
-        <v>22.8</v>
+      <c r="M667" s="7">
+        <v>22800</v>
       </c>
     </row>
     <row r="668" spans="1:13" x14ac:dyDescent="0.25">
@@ -27615,20 +27631,20 @@
       <c r="D668" s="4">
         <v>25</v>
       </c>
-      <c r="E668" s="4">
-        <v>2.8809999999999998</v>
-      </c>
-      <c r="F668" s="4">
-        <v>3.2330000000000001</v>
-      </c>
-      <c r="G668" s="4">
-        <v>2.5790000000000002</v>
-      </c>
-      <c r="H668" s="4">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="I668" s="4">
-        <v>4.718</v>
+      <c r="E668" s="8">
+        <v>2881</v>
+      </c>
+      <c r="F668" s="8">
+        <v>3233</v>
+      </c>
+      <c r="G668" s="8">
+        <v>2579</v>
+      </c>
+      <c r="H668" s="8">
+        <v>3934</v>
+      </c>
+      <c r="I668" s="8">
+        <v>4718</v>
       </c>
       <c r="J668" s="4">
         <v>783</v>
@@ -27639,8 +27655,8 @@
       <c r="L668" s="4">
         <v>222</v>
       </c>
-      <c r="M668" s="5">
-        <v>18.736999999999998</v>
+      <c r="M668" s="7">
+        <v>18737</v>
       </c>
     </row>
     <row r="669" spans="1:13" x14ac:dyDescent="0.25">
@@ -27654,20 +27670,20 @@
       <c r="D669" s="4">
         <v>305</v>
       </c>
-      <c r="E669" s="4">
-        <v>8.0830000000000002</v>
-      </c>
-      <c r="F669" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="G669" s="4">
-        <v>2.5640000000000001</v>
-      </c>
-      <c r="H669" s="4">
-        <v>2.9649999999999999</v>
-      </c>
-      <c r="I669" s="4">
-        <v>2.1640000000000001</v>
+      <c r="E669" s="8">
+        <v>8083</v>
+      </c>
+      <c r="F669" s="8">
+        <v>2790</v>
+      </c>
+      <c r="G669" s="8">
+        <v>2564</v>
+      </c>
+      <c r="H669" s="8">
+        <v>2965</v>
+      </c>
+      <c r="I669" s="8">
+        <v>2164</v>
       </c>
       <c r="J669" s="4">
         <v>306</v>
@@ -27678,8 +27694,8 @@
       <c r="L669" s="4">
         <v>275</v>
       </c>
-      <c r="M669" s="5">
-        <v>19.727</v>
+      <c r="M669" s="7">
+        <v>19727</v>
       </c>
     </row>
     <row r="670" spans="1:13" x14ac:dyDescent="0.25">
@@ -27695,20 +27711,20 @@
       <c r="D670" s="4">
         <v>34</v>
       </c>
-      <c r="E670" s="4">
-        <v>3.4630000000000001</v>
-      </c>
-      <c r="F670" s="4">
-        <v>2.62</v>
-      </c>
-      <c r="G670" s="4">
-        <v>2.262</v>
-      </c>
-      <c r="H670" s="4">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="I670" s="4">
-        <v>3.238</v>
+      <c r="E670" s="8">
+        <v>3463</v>
+      </c>
+      <c r="F670" s="8">
+        <v>2620</v>
+      </c>
+      <c r="G670" s="8">
+        <v>2262</v>
+      </c>
+      <c r="H670" s="8">
+        <v>3148</v>
+      </c>
+      <c r="I670" s="8">
+        <v>3238</v>
       </c>
       <c r="J670" s="4">
         <v>427</v>
@@ -27719,8 +27735,8 @@
       <c r="L670" s="4">
         <v>286</v>
       </c>
-      <c r="M670" s="5">
-        <v>15.759</v>
+      <c r="M670" s="7">
+        <v>15759</v>
       </c>
     </row>
     <row r="671" spans="1:13" x14ac:dyDescent="0.25">
@@ -27734,20 +27750,20 @@
       <c r="D671" s="4">
         <v>453</v>
       </c>
-      <c r="E671" s="4">
-        <v>8.8019999999999996</v>
-      </c>
-      <c r="F671" s="4">
-        <v>1.764</v>
-      </c>
-      <c r="G671" s="4">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="H671" s="4">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="I671" s="4">
-        <v>1.198</v>
+      <c r="E671" s="8">
+        <v>8802</v>
+      </c>
+      <c r="F671" s="8">
+        <v>1764</v>
+      </c>
+      <c r="G671" s="8">
+        <v>1727</v>
+      </c>
+      <c r="H671" s="8">
+        <v>2042</v>
+      </c>
+      <c r="I671" s="8">
+        <v>1198</v>
       </c>
       <c r="J671" s="4">
         <v>119</v>
@@ -27758,8 +27774,8 @@
       <c r="L671" s="4">
         <v>262</v>
       </c>
-      <c r="M671" s="5">
-        <v>16.686</v>
+      <c r="M671" s="7">
+        <v>16686</v>
       </c>
     </row>
     <row r="672" spans="1:13" x14ac:dyDescent="0.25">
@@ -27775,20 +27791,20 @@
       <c r="D672" s="4">
         <v>43</v>
       </c>
-      <c r="E672" s="4">
-        <v>4.0549999999999997</v>
-      </c>
-      <c r="F672" s="4">
-        <v>1.282</v>
-      </c>
-      <c r="G672" s="4">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="H672" s="4">
-        <v>2.863</v>
-      </c>
-      <c r="I672" s="4">
-        <v>2.3919999999999999</v>
+      <c r="E672" s="8">
+        <v>4055</v>
+      </c>
+      <c r="F672" s="8">
+        <v>1282</v>
+      </c>
+      <c r="G672" s="8">
+        <v>1576</v>
+      </c>
+      <c r="H672" s="8">
+        <v>2863</v>
+      </c>
+      <c r="I672" s="8">
+        <v>2392</v>
       </c>
       <c r="J672" s="4">
         <v>217</v>
@@ -27799,8 +27815,8 @@
       <c r="L672" s="4">
         <v>251</v>
       </c>
-      <c r="M672" s="5">
-        <v>12.848000000000001</v>
+      <c r="M672" s="7">
+        <v>12848</v>
       </c>
     </row>
     <row r="673" spans="1:13" x14ac:dyDescent="0.25">
@@ -27814,8 +27830,8 @@
       <c r="D673" s="4">
         <v>743</v>
       </c>
-      <c r="E673" s="4">
-        <v>8.4990000000000006</v>
+      <c r="E673" s="8">
+        <v>8499</v>
       </c>
       <c r="F673" s="4">
         <v>709</v>
@@ -27823,8 +27839,8 @@
       <c r="G673" s="4">
         <v>956</v>
       </c>
-      <c r="H673" s="4">
-        <v>1.3660000000000001</v>
+      <c r="H673" s="8">
+        <v>1366</v>
       </c>
       <c r="I673" s="4">
         <v>708</v>
@@ -27838,8 +27854,8 @@
       <c r="L673" s="4">
         <v>212</v>
       </c>
-      <c r="M673" s="5">
-        <v>13.763</v>
+      <c r="M673" s="7">
+        <v>13763</v>
       </c>
     </row>
     <row r="674" spans="1:13" x14ac:dyDescent="0.25">
@@ -27855,20 +27871,20 @@
       <c r="D674" s="4">
         <v>72</v>
       </c>
-      <c r="E674" s="4">
-        <v>4.1070000000000002</v>
+      <c r="E674" s="8">
+        <v>4107</v>
       </c>
       <c r="F674" s="4">
         <v>535</v>
       </c>
-      <c r="G674" s="4">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="H674" s="4">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="I674" s="4">
-        <v>1.863</v>
+      <c r="G674" s="8">
+        <v>1039</v>
+      </c>
+      <c r="H674" s="8">
+        <v>1743</v>
+      </c>
+      <c r="I674" s="8">
+        <v>1863</v>
       </c>
       <c r="J674" s="4">
         <v>129</v>
@@ -27879,8 +27895,8 @@
       <c r="L674" s="4">
         <v>208</v>
       </c>
-      <c r="M674" s="5">
-        <v>9.8119999999999994</v>
+      <c r="M674" s="7">
+        <v>9812</v>
       </c>
     </row>
     <row r="675" spans="1:13" x14ac:dyDescent="0.25">
@@ -27891,11 +27907,11 @@
       <c r="C675" s="4">
         <v>726</v>
       </c>
-      <c r="D675" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="E675" s="4">
-        <v>6.9279999999999999</v>
+      <c r="D675" s="8">
+        <v>1020</v>
+      </c>
+      <c r="E675" s="8">
+        <v>6928</v>
       </c>
       <c r="F675" s="4">
         <v>227</v>
@@ -27918,8 +27934,8 @@
       <c r="L675" s="4">
         <v>167</v>
       </c>
-      <c r="M675" s="5">
-        <v>10.92</v>
+      <c r="M675" s="7">
+        <v>10920</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.25">
@@ -27935,8 +27951,8 @@
       <c r="D676" s="4">
         <v>113</v>
       </c>
-      <c r="E676" s="4">
-        <v>3.306</v>
+      <c r="E676" s="8">
+        <v>3306</v>
       </c>
       <c r="F676" s="4">
         <v>161</v>
@@ -27947,8 +27963,8 @@
       <c r="H676" s="4">
         <v>896</v>
       </c>
-      <c r="I676" s="4">
-        <v>1.0940000000000001</v>
+      <c r="I676" s="8">
+        <v>1094</v>
       </c>
       <c r="J676" s="4">
         <v>66</v>
@@ -27959,8 +27975,8 @@
       <c r="L676" s="4">
         <v>157</v>
       </c>
-      <c r="M676" s="5">
-        <v>6.5289999999999999</v>
+      <c r="M676" s="7">
+        <v>6529</v>
       </c>
     </row>
     <row r="677" spans="1:13" x14ac:dyDescent="0.25">
@@ -27971,11 +27987,11 @@
       <c r="C677" s="4">
         <v>881</v>
       </c>
-      <c r="D677" s="4">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="E677" s="4">
-        <v>4.45</v>
+      <c r="D677" s="8">
+        <v>1265</v>
+      </c>
+      <c r="E677" s="8">
+        <v>4450</v>
       </c>
       <c r="F677" s="4">
         <v>50</v>
@@ -27998,8 +28014,8 @@
       <c r="L677" s="4">
         <v>130</v>
       </c>
-      <c r="M677" s="5">
-        <v>7.6630000000000003</v>
+      <c r="M677" s="7">
+        <v>7663</v>
       </c>
     </row>
     <row r="678" spans="1:13" x14ac:dyDescent="0.25">
@@ -28015,8 +28031,8 @@
       <c r="D678" s="4">
         <v>377</v>
       </c>
-      <c r="E678" s="4">
-        <v>3.7210000000000001</v>
+      <c r="E678" s="8">
+        <v>3721</v>
       </c>
       <c r="F678" s="4">
         <v>68</v>
@@ -28039,8 +28055,8 @@
       <c r="L678" s="4">
         <v>148</v>
       </c>
-      <c r="M678" s="5">
-        <v>6.5540000000000003</v>
+      <c r="M678" s="7">
+        <v>6554</v>
       </c>
     </row>
     <row r="679" spans="1:13" x14ac:dyDescent="0.25">
@@ -28048,14 +28064,14 @@
       <c r="B679" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C679" s="4">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="D679" s="4">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="E679" s="4">
-        <v>4.2190000000000003</v>
+      <c r="C679" s="8">
+        <v>1965</v>
+      </c>
+      <c r="D679" s="8">
+        <v>2332</v>
+      </c>
+      <c r="E679" s="8">
+        <v>4219</v>
       </c>
       <c r="F679" s="4">
         <v>16</v>
@@ -28078,8 +28094,8 @@
       <c r="L679" s="4">
         <v>101</v>
       </c>
-      <c r="M679" s="5">
-        <v>9.2479999999999993</v>
+      <c r="M679" s="7">
+        <v>9248</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.25">
@@ -28087,45 +28103,45 @@
         <v>12</v>
       </c>
       <c r="B680" s="6"/>
-      <c r="C680" s="5">
-        <v>5.0119999999999996</v>
-      </c>
-      <c r="D680" s="5">
-        <v>8.3109999999999999</v>
-      </c>
-      <c r="E680" s="5">
-        <v>90.254000000000005</v>
-      </c>
-      <c r="F680" s="5">
-        <v>41.012</v>
-      </c>
-      <c r="G680" s="5">
-        <v>62.216999999999999</v>
-      </c>
-      <c r="H680" s="5">
-        <v>130.74700000000001</v>
-      </c>
-      <c r="I680" s="5">
-        <v>111.883</v>
-      </c>
-      <c r="J680" s="5">
-        <v>17.038</v>
-      </c>
-      <c r="K680" s="5">
-        <v>3.5680000000000001</v>
-      </c>
-      <c r="L680" s="5">
-        <v>5.9820000000000002</v>
-      </c>
-      <c r="M680" s="5">
-        <v>476.024</v>
+      <c r="C680" s="7">
+        <v>5012</v>
+      </c>
+      <c r="D680" s="7">
+        <v>8311</v>
+      </c>
+      <c r="E680" s="7">
+        <v>90254</v>
+      </c>
+      <c r="F680" s="7">
+        <v>41012</v>
+      </c>
+      <c r="G680" s="7">
+        <v>62217</v>
+      </c>
+      <c r="H680" s="7">
+        <v>130747</v>
+      </c>
+      <c r="I680" s="7">
+        <v>111883</v>
+      </c>
+      <c r="J680" s="7">
+        <v>17038</v>
+      </c>
+      <c r="K680" s="7">
+        <v>3568</v>
+      </c>
+      <c r="L680" s="7">
+        <v>5982</v>
+      </c>
+      <c r="M680" s="7">
+        <v>476024</v>
       </c>
     </row>
     <row r="681" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A681" s="8" t="s">
+      <c r="A681" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B681" s="8"/>
+      <c r="B681" s="11"/>
       <c r="C681" s="2" t="s">
         <v>2</v>
       </c>
@@ -28182,8 +28198,8 @@
       <c r="G682" s="4">
         <v>652</v>
       </c>
-      <c r="H682" s="4">
-        <v>2.0939999999999999</v>
+      <c r="H682" s="8">
+        <v>2094</v>
       </c>
       <c r="I682" s="4">
         <v>425</v>
@@ -28197,8 +28213,8 @@
       <c r="L682" s="4">
         <v>13</v>
       </c>
-      <c r="M682" s="5">
-        <v>3.1989999999999998</v>
+      <c r="M682" s="7">
+        <v>3199</v>
       </c>
     </row>
     <row r="683" spans="1:13" x14ac:dyDescent="0.25">
@@ -28221,8 +28237,8 @@
       <c r="G683" s="4">
         <v>574</v>
       </c>
-      <c r="H683" s="4">
-        <v>2.0870000000000002</v>
+      <c r="H683" s="8">
+        <v>2087</v>
       </c>
       <c r="I683" s="4">
         <v>690</v>
@@ -28236,8 +28252,8 @@
       <c r="L683" s="4">
         <v>9</v>
       </c>
-      <c r="M683" s="5">
-        <v>3.38</v>
+      <c r="M683" s="7">
+        <v>3380</v>
       </c>
     </row>
     <row r="684" spans="1:13" x14ac:dyDescent="0.25">
@@ -28277,8 +28293,8 @@
       <c r="L684" s="4">
         <v>9</v>
       </c>
-      <c r="M684" s="5">
-        <v>2.0059999999999998</v>
+      <c r="M684" s="7">
+        <v>2006</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.25">
@@ -28316,8 +28332,8 @@
       <c r="L685" s="4">
         <v>11</v>
       </c>
-      <c r="M685" s="5">
-        <v>1.992</v>
+      <c r="M685" s="7">
+        <v>1992</v>
       </c>
     </row>
     <row r="686" spans="1:13" x14ac:dyDescent="0.25">
@@ -28357,8 +28373,8 @@
       <c r="L686" s="4">
         <v>9</v>
       </c>
-      <c r="M686" s="5">
-        <v>1.7709999999999999</v>
+      <c r="M686" s="7">
+        <v>1771</v>
       </c>
     </row>
     <row r="687" spans="1:13" x14ac:dyDescent="0.25">
@@ -28396,8 +28412,8 @@
       <c r="L687" s="4">
         <v>8</v>
       </c>
-      <c r="M687" s="5">
-        <v>1.867</v>
+      <c r="M687" s="7">
+        <v>1867</v>
       </c>
     </row>
     <row r="688" spans="1:13" x14ac:dyDescent="0.25">
@@ -28437,8 +28453,8 @@
       <c r="L688" s="4">
         <v>14</v>
       </c>
-      <c r="M688" s="5">
-        <v>2.1059999999999999</v>
+      <c r="M688" s="7">
+        <v>2106</v>
       </c>
     </row>
     <row r="689" spans="1:13" x14ac:dyDescent="0.25">
@@ -28476,8 +28492,8 @@
       <c r="L689" s="4">
         <v>8</v>
       </c>
-      <c r="M689" s="5">
-        <v>2.1419999999999999</v>
+      <c r="M689" s="7">
+        <v>2142</v>
       </c>
     </row>
     <row r="690" spans="1:13" x14ac:dyDescent="0.25">
@@ -28517,8 +28533,8 @@
       <c r="L690" s="4">
         <v>5</v>
       </c>
-      <c r="M690" s="5">
-        <v>2.3260000000000001</v>
+      <c r="M690" s="7">
+        <v>2326</v>
       </c>
     </row>
     <row r="691" spans="1:13" x14ac:dyDescent="0.25">
@@ -28556,8 +28572,8 @@
       <c r="L691" s="4">
         <v>8</v>
       </c>
-      <c r="M691" s="5">
-        <v>2.4089999999999998</v>
+      <c r="M691" s="7">
+        <v>2409</v>
       </c>
     </row>
     <row r="692" spans="1:13" x14ac:dyDescent="0.25">
@@ -28597,8 +28613,8 @@
       <c r="L692" s="4">
         <v>11</v>
       </c>
-      <c r="M692" s="5">
-        <v>2.3079999999999998</v>
+      <c r="M692" s="7">
+        <v>2308</v>
       </c>
     </row>
     <row r="693" spans="1:13" x14ac:dyDescent="0.25">
@@ -28636,8 +28652,8 @@
       <c r="L693" s="4">
         <v>9</v>
       </c>
-      <c r="M693" s="5">
-        <v>2.2869999999999999</v>
+      <c r="M693" s="7">
+        <v>2287</v>
       </c>
     </row>
     <row r="694" spans="1:13" x14ac:dyDescent="0.25">
@@ -28677,8 +28693,8 @@
       <c r="L694" s="4">
         <v>8</v>
       </c>
-      <c r="M694" s="5">
-        <v>1.994</v>
+      <c r="M694" s="7">
+        <v>1994</v>
       </c>
     </row>
     <row r="695" spans="1:13" x14ac:dyDescent="0.25">
@@ -28692,8 +28708,8 @@
       <c r="D695" s="4">
         <v>30</v>
       </c>
-      <c r="E695" s="4">
-        <v>1.1040000000000001</v>
+      <c r="E695" s="8">
+        <v>1104</v>
       </c>
       <c r="F695" s="4">
         <v>213</v>
@@ -28716,8 +28732,8 @@
       <c r="L695" s="4">
         <v>15</v>
       </c>
-      <c r="M695" s="5">
-        <v>2.1139999999999999</v>
+      <c r="M695" s="7">
+        <v>2114</v>
       </c>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.25">
@@ -28757,8 +28773,8 @@
       <c r="L696" s="4">
         <v>14</v>
       </c>
-      <c r="M696" s="5">
-        <v>1.9159999999999999</v>
+      <c r="M696" s="7">
+        <v>1916</v>
       </c>
     </row>
     <row r="697" spans="1:13" x14ac:dyDescent="0.25">
@@ -28772,8 +28788,8 @@
       <c r="D697" s="4">
         <v>64</v>
       </c>
-      <c r="E697" s="4">
-        <v>1.302</v>
+      <c r="E697" s="8">
+        <v>1302</v>
       </c>
       <c r="F697" s="4">
         <v>141</v>
@@ -28796,8 +28812,8 @@
       <c r="L697" s="4">
         <v>17</v>
       </c>
-      <c r="M697" s="5">
-        <v>2.0510000000000002</v>
+      <c r="M697" s="7">
+        <v>2051</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.25">
@@ -28837,8 +28853,8 @@
       <c r="L698" s="4">
         <v>13</v>
       </c>
-      <c r="M698" s="5">
-        <v>1.8169999999999999</v>
+      <c r="M698" s="7">
+        <v>1817</v>
       </c>
     </row>
     <row r="699" spans="1:13" x14ac:dyDescent="0.25">
@@ -28852,8 +28868,8 @@
       <c r="D699" s="4">
         <v>140</v>
       </c>
-      <c r="E699" s="4">
-        <v>1.4730000000000001</v>
+      <c r="E699" s="8">
+        <v>1473</v>
       </c>
       <c r="F699" s="4">
         <v>74</v>
@@ -28876,8 +28892,8 @@
       <c r="L699" s="4">
         <v>13</v>
       </c>
-      <c r="M699" s="5">
-        <v>2.0510000000000002</v>
+      <c r="M699" s="7">
+        <v>2051</v>
       </c>
     </row>
     <row r="700" spans="1:13" x14ac:dyDescent="0.25">
@@ -28917,8 +28933,8 @@
       <c r="L700" s="4">
         <v>15</v>
       </c>
-      <c r="M700" s="5">
-        <v>1.756</v>
+      <c r="M700" s="7">
+        <v>1756</v>
       </c>
     </row>
     <row r="701" spans="1:13" x14ac:dyDescent="0.25">
@@ -28932,8 +28948,8 @@
       <c r="D701" s="4">
         <v>319</v>
       </c>
-      <c r="E701" s="4">
-        <v>1.3480000000000001</v>
+      <c r="E701" s="8">
+        <v>1348</v>
       </c>
       <c r="F701" s="4">
         <v>32</v>
@@ -28956,8 +28972,8 @@
       <c r="L701" s="4">
         <v>11</v>
       </c>
-      <c r="M701" s="5">
-        <v>1.9810000000000001</v>
+      <c r="M701" s="7">
+        <v>1981</v>
       </c>
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.25">
@@ -28973,8 +28989,8 @@
       <c r="D702" s="4">
         <v>35</v>
       </c>
-      <c r="E702" s="4">
-        <v>1.0389999999999999</v>
+      <c r="E702" s="8">
+        <v>1039</v>
       </c>
       <c r="F702" s="4">
         <v>24</v>
@@ -28997,8 +29013,8 @@
       <c r="L702" s="4">
         <v>15</v>
       </c>
-      <c r="M702" s="5">
-        <v>1.482</v>
+      <c r="M702" s="7">
+        <v>1482</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.25">
@@ -29036,8 +29052,8 @@
       <c r="L703" s="4">
         <v>18</v>
       </c>
-      <c r="M703" s="5">
-        <v>1.5620000000000001</v>
+      <c r="M703" s="7">
+        <v>1562</v>
       </c>
     </row>
     <row r="704" spans="1:13" x14ac:dyDescent="0.25">
@@ -29053,8 +29069,8 @@
       <c r="D704" s="4">
         <v>182</v>
       </c>
-      <c r="E704" s="4">
-        <v>1.04</v>
+      <c r="E704" s="8">
+        <v>1040</v>
       </c>
       <c r="F704" s="4">
         <v>9</v>
@@ -29077,8 +29093,8 @@
       <c r="L704" s="4">
         <v>26</v>
       </c>
-      <c r="M704" s="5">
-        <v>1.5469999999999999</v>
+      <c r="M704" s="7">
+        <v>1547</v>
       </c>
     </row>
     <row r="705" spans="1:13" x14ac:dyDescent="0.25">
@@ -29116,8 +29132,8 @@
       <c r="L705" s="4">
         <v>19</v>
       </c>
-      <c r="M705" s="5">
-        <v>1.98</v>
+      <c r="M705" s="7">
+        <v>1980</v>
       </c>
     </row>
     <row r="706" spans="1:13" x14ac:dyDescent="0.25">
@@ -29128,23 +29144,23 @@
       <c r="C706" s="5">
         <v>900</v>
       </c>
-      <c r="D706" s="5">
-        <v>2.1720000000000002</v>
-      </c>
-      <c r="E706" s="5">
-        <v>14.481</v>
-      </c>
-      <c r="F706" s="5">
-        <v>3.806</v>
-      </c>
-      <c r="G706" s="5">
-        <v>6.476</v>
-      </c>
-      <c r="H706" s="5">
-        <v>12.683999999999999</v>
-      </c>
-      <c r="I706" s="5">
-        <v>8.39</v>
+      <c r="D706" s="7">
+        <v>2172</v>
+      </c>
+      <c r="E706" s="7">
+        <v>14481</v>
+      </c>
+      <c r="F706" s="7">
+        <v>3806</v>
+      </c>
+      <c r="G706" s="7">
+        <v>6476</v>
+      </c>
+      <c r="H706" s="7">
+        <v>12684</v>
+      </c>
+      <c r="I706" s="7">
+        <v>8390</v>
       </c>
       <c r="J706" s="5">
         <v>769</v>
@@ -29155,15 +29171,15 @@
       <c r="L706" s="5">
         <v>298</v>
       </c>
-      <c r="M706" s="5">
-        <v>50.043999999999997</v>
+      <c r="M706" s="7">
+        <v>50044</v>
       </c>
     </row>
     <row r="707" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A707" s="8" t="s">
+      <c r="A707" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B707" s="8"/>
+      <c r="B707" s="11"/>
       <c r="C707" s="2" t="s">
         <v>2</v>
       </c>
@@ -30169,8 +30185,8 @@
       <c r="D732" s="5">
         <v>257</v>
       </c>
-      <c r="E732" s="5">
-        <v>1.57</v>
+      <c r="E732" s="7">
+        <v>1570</v>
       </c>
       <c r="F732" s="5">
         <v>360</v>
@@ -30193,15 +30209,15 @@
       <c r="L732" s="5">
         <v>41</v>
       </c>
-      <c r="M732" s="5">
-        <v>4.431</v>
+      <c r="M732" s="7">
+        <v>4431</v>
       </c>
     </row>
     <row r="733" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A733" s="8" t="s">
+      <c r="A733" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B733" s="8"/>
+      <c r="B733" s="11"/>
       <c r="C733" s="2" t="s">
         <v>2</v>
       </c>
@@ -31207,8 +31223,8 @@
       <c r="D758" s="5">
         <v>353</v>
       </c>
-      <c r="E758" s="5">
-        <v>1.9550000000000001</v>
+      <c r="E758" s="7">
+        <v>1955</v>
       </c>
       <c r="F758" s="5">
         <v>319</v>
@@ -31216,8 +31232,8 @@
       <c r="G758" s="5">
         <v>736</v>
       </c>
-      <c r="H758" s="5">
-        <v>1.1679999999999999</v>
+      <c r="H758" s="7">
+        <v>1168</v>
       </c>
       <c r="I758" s="5">
         <v>335</v>
@@ -31231,15 +31247,15 @@
       <c r="L758" s="5">
         <v>21</v>
       </c>
-      <c r="M758" s="5">
-        <v>5.0759999999999996</v>
+      <c r="M758" s="7">
+        <v>5076</v>
       </c>
     </row>
     <row r="759" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A759" s="8" t="s">
+      <c r="A759" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B759" s="8"/>
+      <c r="B759" s="11"/>
       <c r="C759" s="2" t="s">
         <v>2</v>
       </c>
@@ -31264,7 +31280,7 @@
       <c r="J759" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K759" s="2" t="s">
+      <c r="K759" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L759" s="2" t="s">
@@ -31305,8 +31321,8 @@
       <c r="J760" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K760" s="4" t="s">
-        <v>15</v>
+      <c r="K760" s="4">
+        <v>0</v>
       </c>
       <c r="L760" s="4">
         <v>1</v>
@@ -31344,8 +31360,8 @@
       <c r="J761" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K761" s="4" t="s">
-        <v>15</v>
+      <c r="K761" s="4">
+        <v>0</v>
       </c>
       <c r="L761" s="4" t="s">
         <v>15</v>
@@ -31385,8 +31401,8 @@
       <c r="J762" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K762" s="4" t="s">
-        <v>15</v>
+      <c r="K762" s="4">
+        <v>0</v>
       </c>
       <c r="L762" s="4" t="s">
         <v>15</v>
@@ -31424,8 +31440,8 @@
       <c r="J763" s="4">
         <v>3</v>
       </c>
-      <c r="K763" s="4" t="s">
-        <v>15</v>
+      <c r="K763" s="4">
+        <v>0</v>
       </c>
       <c r="L763" s="4">
         <v>1</v>
@@ -31465,8 +31481,8 @@
       <c r="J764" s="4">
         <v>1</v>
       </c>
-      <c r="K764" s="4" t="s">
-        <v>15</v>
+      <c r="K764" s="4">
+        <v>0</v>
       </c>
       <c r="L764" s="4" t="s">
         <v>15</v>
@@ -31504,8 +31520,8 @@
       <c r="J765" s="4">
         <v>1</v>
       </c>
-      <c r="K765" s="4" t="s">
-        <v>15</v>
+      <c r="K765" s="4">
+        <v>0</v>
       </c>
       <c r="L765" s="4">
         <v>1</v>
@@ -31545,8 +31561,8 @@
       <c r="J766" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K766" s="4" t="s">
-        <v>15</v>
+      <c r="K766" s="4">
+        <v>0</v>
       </c>
       <c r="L766" s="4">
         <v>1</v>
@@ -31584,8 +31600,8 @@
       <c r="J767" s="4">
         <v>1</v>
       </c>
-      <c r="K767" s="4" t="s">
-        <v>15</v>
+      <c r="K767" s="4">
+        <v>0</v>
       </c>
       <c r="L767" s="4">
         <v>1</v>
@@ -31625,8 +31641,8 @@
       <c r="J768" s="4">
         <v>1</v>
       </c>
-      <c r="K768" s="4" t="s">
-        <v>15</v>
+      <c r="K768" s="4">
+        <v>0</v>
       </c>
       <c r="L768" s="4">
         <v>2</v>
@@ -31664,8 +31680,8 @@
       <c r="J769" s="4">
         <v>1</v>
       </c>
-      <c r="K769" s="4" t="s">
-        <v>15</v>
+      <c r="K769" s="4">
+        <v>0</v>
       </c>
       <c r="L769" s="4">
         <v>1</v>
@@ -31705,8 +31721,8 @@
       <c r="J770" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K770" s="4" t="s">
-        <v>15</v>
+      <c r="K770" s="4">
+        <v>0</v>
       </c>
       <c r="L770" s="4">
         <v>2</v>
@@ -31744,8 +31760,8 @@
       <c r="J771" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K771" s="4" t="s">
-        <v>15</v>
+      <c r="K771" s="4">
+        <v>0</v>
       </c>
       <c r="L771" s="4">
         <v>3</v>
@@ -31785,8 +31801,8 @@
       <c r="J772" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K772" s="4" t="s">
-        <v>15</v>
+      <c r="K772" s="4">
+        <v>0</v>
       </c>
       <c r="L772" s="4">
         <v>7</v>
@@ -31824,8 +31840,8 @@
       <c r="J773" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K773" s="4" t="s">
-        <v>15</v>
+      <c r="K773" s="4">
+        <v>0</v>
       </c>
       <c r="L773" s="4">
         <v>4</v>
@@ -31865,8 +31881,8 @@
       <c r="J774" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K774" s="4" t="s">
-        <v>15</v>
+      <c r="K774" s="4">
+        <v>0</v>
       </c>
       <c r="L774" s="4">
         <v>9</v>
@@ -31904,8 +31920,8 @@
       <c r="J775" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K775" s="4" t="s">
-        <v>15</v>
+      <c r="K775" s="4">
+        <v>0</v>
       </c>
       <c r="L775" s="4">
         <v>10</v>
@@ -31945,8 +31961,8 @@
       <c r="J776" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K776" s="4" t="s">
-        <v>15</v>
+      <c r="K776" s="4">
+        <v>0</v>
       </c>
       <c r="L776" s="4">
         <v>4</v>
@@ -31984,8 +32000,8 @@
       <c r="J777" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K777" s="4" t="s">
-        <v>15</v>
+      <c r="K777" s="4">
+        <v>0</v>
       </c>
       <c r="L777" s="4">
         <v>2</v>
@@ -32025,8 +32041,8 @@
       <c r="J778" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K778" s="4" t="s">
-        <v>15</v>
+      <c r="K778" s="4">
+        <v>0</v>
       </c>
       <c r="L778" s="4">
         <v>2</v>
@@ -32064,8 +32080,8 @@
       <c r="J779" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K779" s="4" t="s">
-        <v>15</v>
+      <c r="K779" s="4">
+        <v>0</v>
       </c>
       <c r="L779" s="4">
         <v>1</v>
@@ -32105,8 +32121,8 @@
       <c r="J780" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K780" s="4" t="s">
-        <v>15</v>
+      <c r="K780" s="4">
+        <v>0</v>
       </c>
       <c r="L780" s="4">
         <v>4</v>
@@ -32144,8 +32160,8 @@
       <c r="J781" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K781" s="4" t="s">
-        <v>15</v>
+      <c r="K781" s="4">
+        <v>0</v>
       </c>
       <c r="L781" s="4">
         <v>9</v>
@@ -32185,8 +32201,8 @@
       <c r="J782" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K782" s="4" t="s">
-        <v>15</v>
+      <c r="K782" s="4">
+        <v>0</v>
       </c>
       <c r="L782" s="4">
         <v>8</v>
@@ -32224,8 +32240,8 @@
       <c r="J783" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K783" s="4" t="s">
-        <v>15</v>
+      <c r="K783" s="4">
+        <v>0</v>
       </c>
       <c r="L783" s="4">
         <v>7</v>
@@ -32263,21 +32279,21 @@
       <c r="J784" s="5">
         <v>8</v>
       </c>
-      <c r="K784" s="5">
+      <c r="K784" s="4">
         <v>0</v>
       </c>
       <c r="L784" s="5">
         <v>80</v>
       </c>
-      <c r="M784" s="5">
-        <v>1.508</v>
+      <c r="M784" s="7">
+        <v>1508</v>
       </c>
     </row>
     <row r="785" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A785" s="8" t="s">
+      <c r="A785" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B785" s="8"/>
+      <c r="B785" s="11"/>
       <c r="C785" s="2" t="s">
         <v>2</v>
       </c>
@@ -32349,8 +32365,8 @@
       <c r="L786" s="4">
         <v>22</v>
       </c>
-      <c r="M786" s="5">
-        <v>1.0840000000000001</v>
+      <c r="M786" s="7">
+        <v>1084</v>
       </c>
     </row>
     <row r="787" spans="1:13" x14ac:dyDescent="0.25">
@@ -32388,8 +32404,8 @@
       <c r="L787" s="4">
         <v>21</v>
       </c>
-      <c r="M787" s="5">
-        <v>1.121</v>
+      <c r="M787" s="7">
+        <v>1121</v>
       </c>
     </row>
     <row r="788" spans="1:13" x14ac:dyDescent="0.25">
@@ -33280,23 +33296,23 @@
       <c r="C810" s="5">
         <v>815</v>
       </c>
-      <c r="D810" s="5">
-        <v>1.137</v>
-      </c>
-      <c r="E810" s="5">
-        <v>4.7069999999999999</v>
-      </c>
-      <c r="F810" s="5">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="G810" s="5">
-        <v>2.7269999999999999</v>
-      </c>
-      <c r="H810" s="5">
-        <v>3.323</v>
-      </c>
-      <c r="I810" s="5">
-        <v>1.4219999999999999</v>
+      <c r="D810" s="7">
+        <v>1137</v>
+      </c>
+      <c r="E810" s="7">
+        <v>4707</v>
+      </c>
+      <c r="F810" s="7">
+        <v>1237</v>
+      </c>
+      <c r="G810" s="7">
+        <v>2727</v>
+      </c>
+      <c r="H810" s="7">
+        <v>3323</v>
+      </c>
+      <c r="I810" s="7">
+        <v>1422</v>
       </c>
       <c r="J810" s="5">
         <v>136</v>
@@ -33307,12 +33323,38 @@
       <c r="L810" s="5">
         <v>468</v>
       </c>
-      <c r="M810" s="5">
-        <v>15.98</v>
+      <c r="M810" s="7">
+        <v>15980</v>
+      </c>
+    </row>
+    <row r="811" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A811" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A812" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A291:B291"/>
     <mergeCell ref="A785:B785"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A629:B629"/>
@@ -33329,22 +33371,6 @@
     <mergeCell ref="A603:B603"/>
     <mergeCell ref="A317:B317"/>
     <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="A447:B447"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
